--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484B825-A9C0-475F-BE86-9E7DD7F9E149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1857,18 +1860,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1913,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1924,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1935,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1946,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1957,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C484B825-A9C0-475F-BE86-9E7DD7F9E149}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DF43A-A3F1-46DA-97D0-9D40281B3F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Next Permutation</t>
   </si>
   <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
     <t>Best time to buy and Sell stock</t>
   </si>
   <si>
@@ -1429,6 +1426,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Revise</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1871,17 +1871,17 @@
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1892,12 +1892,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1905,10 +1905,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1916,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1927,10 +1927,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1938,10 +1938,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1949,10 +1949,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1960,10 +1960,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1971,10 +1971,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -1982,10 +1982,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -1993,10 +1993,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2004,10 +2007,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
@@ -2015,10 +2018,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
@@ -2026,10 +2029,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
         <v>5</v>
       </c>
@@ -2037,10 +2043,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:4" ht="21">
       <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
@@ -2062,133 +2068,133 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:4" ht="21">
       <c r="A23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:4" ht="21">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:4" ht="21">
       <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:4" ht="21">
       <c r="A29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:4" ht="21">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:4" ht="21">
       <c r="A31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -2199,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
@@ -2210,7 +2216,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -2221,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -2232,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>4</v>
@@ -2243,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -2254,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>4</v>
@@ -2265,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
@@ -2276,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -2287,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>4</v>
@@ -2308,10 +2314,10 @@
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -2319,10 +2325,10 @@
     </row>
     <row r="45" spans="1:3" ht="21">
       <c r="A45" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
@@ -2330,10 +2336,10 @@
     </row>
     <row r="46" spans="1:3" ht="21">
       <c r="A46" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
@@ -2341,10 +2347,10 @@
     </row>
     <row r="47" spans="1:3" ht="21">
       <c r="A47" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -2352,10 +2358,10 @@
     </row>
     <row r="48" spans="1:3" ht="21">
       <c r="A48" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>4</v>
@@ -2363,10 +2369,10 @@
     </row>
     <row r="49" spans="1:3" ht="21">
       <c r="A49" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -2374,10 +2380,10 @@
     </row>
     <row r="50" spans="1:3" ht="21">
       <c r="A50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>4</v>
@@ -2385,10 +2391,10 @@
     </row>
     <row r="51" spans="1:3" ht="21">
       <c r="A51" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>4</v>
@@ -2396,10 +2402,10 @@
     </row>
     <row r="52" spans="1:3" ht="21">
       <c r="A52" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -2407,10 +2413,10 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -2423,10 +2429,10 @@
     </row>
     <row r="56" spans="1:3" ht="21">
       <c r="A56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>4</v>
@@ -2434,10 +2440,10 @@
     </row>
     <row r="57" spans="1:3" ht="21">
       <c r="A57" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>4</v>
@@ -2445,10 +2451,10 @@
     </row>
     <row r="58" spans="1:3" ht="21">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -2456,10 +2462,10 @@
     </row>
     <row r="59" spans="1:3" ht="21">
       <c r="A59" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -2467,10 +2473,10 @@
     </row>
     <row r="60" spans="1:3" ht="21">
       <c r="A60" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -2478,10 +2484,10 @@
     </row>
     <row r="61" spans="1:3" ht="21">
       <c r="A61" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -2489,10 +2495,10 @@
     </row>
     <row r="62" spans="1:3" ht="21">
       <c r="A62" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
@@ -2500,10 +2506,10 @@
     </row>
     <row r="63" spans="1:3" ht="21">
       <c r="A63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2511,10 +2517,10 @@
     </row>
     <row r="64" spans="1:3" ht="21">
       <c r="A64" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="65" spans="1:3" ht="21">
       <c r="A65" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2533,10 +2539,10 @@
     </row>
     <row r="66" spans="1:3" ht="21">
       <c r="A66" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2544,10 +2550,10 @@
     </row>
     <row r="67" spans="1:3" ht="21">
       <c r="A67" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2555,10 +2561,10 @@
     </row>
     <row r="68" spans="1:3" ht="21">
       <c r="A68" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2566,10 +2572,10 @@
     </row>
     <row r="69" spans="1:3" ht="21">
       <c r="A69" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2577,10 +2583,10 @@
     </row>
     <row r="70" spans="1:3" ht="21">
       <c r="A70" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2588,10 +2594,10 @@
     </row>
     <row r="71" spans="1:3" ht="21">
       <c r="A71" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -2599,10 +2605,10 @@
     </row>
     <row r="72" spans="1:3" ht="21">
       <c r="A72" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
@@ -2610,10 +2616,10 @@
     </row>
     <row r="73" spans="1:3" ht="21">
       <c r="A73" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2621,10 +2627,10 @@
     </row>
     <row r="74" spans="1:3" ht="21">
       <c r="A74" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2632,10 +2638,10 @@
     </row>
     <row r="75" spans="1:3" ht="21">
       <c r="A75" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2643,10 +2649,10 @@
     </row>
     <row r="76" spans="1:3" ht="21">
       <c r="A76" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2654,10 +2660,10 @@
     </row>
     <row r="77" spans="1:3" ht="21">
       <c r="A77" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2665,10 +2671,10 @@
     </row>
     <row r="78" spans="1:3" ht="21">
       <c r="A78" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2676,10 +2682,10 @@
     </row>
     <row r="79" spans="1:3" ht="21">
       <c r="A79" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2687,10 +2693,10 @@
     </row>
     <row r="80" spans="1:3" ht="21">
       <c r="A80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2698,10 +2704,10 @@
     </row>
     <row r="81" spans="1:3" ht="21">
       <c r="A81" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2709,10 +2715,10 @@
     </row>
     <row r="82" spans="1:3" ht="21">
       <c r="A82" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2720,10 +2726,10 @@
     </row>
     <row r="83" spans="1:3" ht="21">
       <c r="A83" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2731,10 +2737,10 @@
     </row>
     <row r="84" spans="1:3" ht="21">
       <c r="A84" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2742,10 +2748,10 @@
     </row>
     <row r="85" spans="1:3" ht="21">
       <c r="A85" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2753,10 +2759,10 @@
     </row>
     <row r="86" spans="1:3" ht="21">
       <c r="A86" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2764,10 +2770,10 @@
     </row>
     <row r="87" spans="1:3" ht="21">
       <c r="A87" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2775,10 +2781,10 @@
     </row>
     <row r="88" spans="1:3" ht="21">
       <c r="A88" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2786,10 +2792,10 @@
     </row>
     <row r="89" spans="1:3" ht="21">
       <c r="A89" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2797,10 +2803,10 @@
     </row>
     <row r="90" spans="1:3" ht="21">
       <c r="A90" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2808,10 +2814,10 @@
     </row>
     <row r="91" spans="1:3" ht="21">
       <c r="A91" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2819,10 +2825,10 @@
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2830,10 +2836,10 @@
     </row>
     <row r="93" spans="1:3" ht="21">
       <c r="A93" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2841,10 +2847,10 @@
     </row>
     <row r="94" spans="1:3" ht="21">
       <c r="A94" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2852,10 +2858,10 @@
     </row>
     <row r="95" spans="1:3" ht="21">
       <c r="A95" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2863,10 +2869,10 @@
     </row>
     <row r="96" spans="1:3" ht="21">
       <c r="A96" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2874,10 +2880,10 @@
     </row>
     <row r="97" spans="1:3" ht="21">
       <c r="A97" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -2885,10 +2891,10 @@
     </row>
     <row r="98" spans="1:3" ht="21">
       <c r="A98" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -2901,10 +2907,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>4</v>
@@ -2912,10 +2918,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2923,10 +2929,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2934,10 +2940,10 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -2945,10 +2951,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -2956,10 +2962,10 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -2967,10 +2973,10 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>4</v>
@@ -2978,10 +2984,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
@@ -2989,10 +2995,10 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -3000,10 +3006,10 @@
     </row>
     <row r="110" spans="1:3" ht="21">
       <c r="A110" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3011,10 +3017,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3022,10 +3028,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3033,10 +3039,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3044,10 +3050,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3055,10 +3061,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3066,10 +3072,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3077,10 +3083,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3088,10 +3094,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3099,10 +3105,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3110,10 +3116,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3121,10 +3127,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3132,10 +3138,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3143,10 +3149,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3154,10 +3160,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3165,10 +3171,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3176,10 +3182,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3187,10 +3193,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3198,10 +3204,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3209,10 +3215,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3220,10 +3226,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3231,10 +3237,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3242,10 +3248,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3253,10 +3259,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3264,10 +3270,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3275,10 +3281,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3286,10 +3292,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3301,10 +3307,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3312,10 +3318,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3323,10 +3329,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3334,10 +3340,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3345,10 +3351,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3356,10 +3362,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3367,10 +3373,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3378,10 +3384,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3389,10 +3395,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3400,10 +3406,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3411,10 +3417,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3422,10 +3428,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3433,10 +3439,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3444,10 +3450,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3455,10 +3461,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3466,10 +3472,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3477,10 +3483,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3488,10 +3494,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3499,10 +3505,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3510,10 +3516,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -3521,10 +3527,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3532,10 +3538,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3543,10 +3549,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3554,10 +3560,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3565,10 +3571,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3576,10 +3582,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3587,10 +3593,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3598,10 +3604,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3609,10 +3615,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3620,10 +3626,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3631,10 +3637,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3642,10 +3648,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3653,10 +3659,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3664,10 +3670,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3675,10 +3681,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -3686,10 +3692,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3701,10 +3707,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B177" s="6" t="s">
         <v>171</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3712,10 +3718,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3723,10 +3729,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3734,10 +3740,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3745,10 +3751,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3756,10 +3762,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3767,10 +3773,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3778,10 +3784,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3789,10 +3795,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3800,10 +3806,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3811,10 +3817,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3822,10 +3828,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3833,10 +3839,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3844,10 +3850,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3855,10 +3861,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3866,10 +3872,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3877,10 +3883,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3888,10 +3894,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3899,10 +3905,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3910,10 +3916,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3921,10 +3927,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3932,10 +3938,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3943,10 +3949,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3954,10 +3960,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3965,10 +3971,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3976,10 +3982,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -3987,10 +3993,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -3998,10 +4004,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4009,10 +4015,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4020,10 +4026,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4031,10 +4037,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4042,10 +4048,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4053,10 +4059,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4064,10 +4070,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4075,10 +4081,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4096,10 +4102,10 @@
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4107,10 +4113,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4118,10 +4124,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4129,10 +4135,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4140,10 +4146,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4151,10 +4157,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4162,10 +4168,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4173,10 +4179,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4184,10 +4190,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4195,10 +4201,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4206,10 +4212,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4217,10 +4223,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4228,10 +4234,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4239,10 +4245,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4250,10 +4256,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4261,10 +4267,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4272,10 +4278,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4283,10 +4289,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4294,10 +4300,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4305,10 +4311,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4316,10 +4322,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4327,10 +4333,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4346,10 +4352,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4357,10 +4363,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4368,10 +4374,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4379,10 +4385,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4390,10 +4396,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4401,10 +4407,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4412,10 +4418,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4423,10 +4429,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4445,10 +4451,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4456,10 +4462,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4467,10 +4473,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4478,10 +4484,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4489,10 +4495,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4500,10 +4506,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4511,10 +4517,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4522,10 +4528,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4533,10 +4539,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4544,10 +4550,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4555,10 +4561,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4566,10 +4572,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4577,10 +4583,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4588,10 +4594,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4599,10 +4605,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4610,10 +4616,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4621,10 +4627,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4632,10 +4638,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4643,10 +4649,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4654,10 +4660,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4665,10 +4671,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4676,10 +4682,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4687,10 +4693,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4698,10 +4704,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4709,10 +4715,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4720,10 +4726,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4739,10 +4745,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4750,10 +4756,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4761,10 +4767,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4772,10 +4778,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4783,10 +4789,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4794,10 +4800,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4805,10 +4811,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4816,10 +4822,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4827,10 +4833,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4838,10 +4844,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4849,10 +4855,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -4860,10 +4866,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -4871,10 +4877,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4882,10 +4888,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -4893,10 +4899,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4904,10 +4910,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4915,10 +4921,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4926,10 +4932,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4937,10 +4943,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -4956,10 +4962,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -4967,10 +4973,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -4978,10 +4984,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -4989,10 +4995,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5000,10 +5006,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5011,10 +5017,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5022,10 +5028,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5033,10 +5039,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5044,10 +5050,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5055,10 +5061,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5066,10 +5072,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5077,10 +5083,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5088,10 +5094,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5099,10 +5105,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5110,10 +5116,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5121,10 +5127,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5132,10 +5138,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5143,10 +5149,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5154,10 +5160,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5165,10 +5171,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5176,10 +5182,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5187,10 +5193,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5198,10 +5204,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5209,10 +5215,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5220,10 +5226,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5231,10 +5237,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5242,10 +5248,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5253,10 +5259,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5264,10 +5270,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5275,10 +5281,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5286,10 +5292,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5297,10 +5303,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5308,10 +5314,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5319,10 +5325,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5330,10 +5336,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5341,10 +5347,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5352,10 +5358,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5363,10 +5369,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5382,10 +5388,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5393,10 +5399,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5404,10 +5410,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5415,10 +5421,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5426,10 +5432,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5437,10 +5443,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5448,10 +5454,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5459,10 +5465,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5470,10 +5476,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5481,10 +5487,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5492,10 +5498,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5503,10 +5509,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5514,10 +5520,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5525,10 +5531,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5536,10 +5542,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5547,10 +5553,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5558,10 +5564,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5569,10 +5575,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5588,10 +5594,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5599,10 +5605,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5610,10 +5616,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5621,10 +5627,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5632,10 +5638,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5643,10 +5649,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5654,10 +5660,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5665,10 +5671,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5676,10 +5682,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5687,10 +5693,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5698,10 +5704,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5709,10 +5715,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5720,10 +5726,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5731,10 +5737,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5742,10 +5748,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5753,10 +5759,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5764,10 +5770,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5775,10 +5781,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5786,10 +5792,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5797,10 +5803,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5808,10 +5814,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5819,10 +5825,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5830,10 +5836,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5841,10 +5847,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5852,10 +5858,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5863,10 +5869,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5874,10 +5880,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5885,10 +5891,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5896,10 +5902,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5907,10 +5913,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5918,10 +5924,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5929,10 +5935,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5940,10 +5946,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5951,10 +5957,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5962,10 +5968,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5973,10 +5979,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -5984,10 +5990,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -5995,10 +6001,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6006,10 +6012,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6017,10 +6023,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6028,10 +6034,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6039,10 +6045,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6050,10 +6056,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6061,10 +6067,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6080,10 +6086,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6091,10 +6097,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6102,10 +6108,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6113,10 +6119,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6124,10 +6130,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6135,10 +6141,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6154,10 +6160,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6165,10 +6171,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6176,10 +6182,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6187,10 +6193,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6198,10 +6204,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6209,10 +6215,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6220,10 +6226,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6231,10 +6237,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6242,10 +6248,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6253,10 +6259,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6264,10 +6270,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6275,10 +6281,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6286,10 +6292,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6297,10 +6303,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6308,10 +6314,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6319,10 +6325,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6330,10 +6336,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6341,10 +6347,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6352,10 +6358,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6363,10 +6369,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6374,10 +6380,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6385,10 +6391,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6396,10 +6402,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6407,10 +6413,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6418,10 +6424,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6429,10 +6435,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6440,10 +6446,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6451,10 +6457,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6462,10 +6468,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6473,10 +6479,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6484,10 +6490,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6495,10 +6501,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6506,10 +6512,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6517,10 +6523,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6528,10 +6534,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6539,10 +6545,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6550,10 +6556,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6561,10 +6567,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6572,10 +6578,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6583,10 +6589,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6594,10 +6600,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6605,10 +6611,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6616,10 +6622,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6627,10 +6633,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6638,10 +6644,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6649,10 +6655,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6660,10 +6666,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6671,10 +6677,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6682,10 +6688,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6693,10 +6699,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6704,10 +6710,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6715,10 +6721,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6726,10 +6732,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6737,10 +6743,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6748,10 +6754,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6759,10 +6765,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6770,10 +6776,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6781,10 +6787,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6792,10 +6798,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6803,10 +6809,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6823,10 +6829,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6834,10 +6840,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6845,10 +6851,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6856,10 +6862,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6867,10 +6873,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6878,10 +6884,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6889,10 +6895,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6900,10 +6906,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6911,10 +6917,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6922,10 +6928,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -6948,437 +6954,437 @@
     <hyperlink ref="B18" r:id="rId13" xr:uid="{E98C86AA-12E7-124C-B7D0-BCDFB246040B}"/>
     <hyperlink ref="B19" r:id="rId14" xr:uid="{192741A9-FF68-DC4A-99FA-69F9968AB4F2}"/>
     <hyperlink ref="B20" r:id="rId15" xr:uid="{DBD9BA9C-91C6-B144-A800-DCB3BED33DE7}"/>
-    <hyperlink ref="B21" r:id="rId16" xr:uid="{A285BDE8-00E7-A94C-8E43-A0C4829D42FA}"/>
-    <hyperlink ref="B22" r:id="rId17" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
-    <hyperlink ref="B23" r:id="rId18" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
-    <hyperlink ref="B24" r:id="rId19" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
-    <hyperlink ref="B25" r:id="rId20" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
-    <hyperlink ref="B26" r:id="rId21" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
-    <hyperlink ref="B27" r:id="rId22" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
-    <hyperlink ref="B28" r:id="rId23" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
-    <hyperlink ref="B29" r:id="rId24" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
-    <hyperlink ref="B30" r:id="rId25" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
-    <hyperlink ref="B31" r:id="rId26" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
-    <hyperlink ref="B34" r:id="rId29" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
-    <hyperlink ref="B35" r:id="rId30" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
-    <hyperlink ref="B36" r:id="rId31" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
-    <hyperlink ref="B37" r:id="rId32" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
-    <hyperlink ref="B38" r:id="rId33" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
-    <hyperlink ref="B44" r:id="rId37" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
-    <hyperlink ref="B45" r:id="rId38" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
-    <hyperlink ref="B46" r:id="rId39" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
-    <hyperlink ref="B47" r:id="rId40" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
-    <hyperlink ref="B48" r:id="rId41" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
-    <hyperlink ref="B49" r:id="rId42" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
-    <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
-    <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
-    <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
-    <hyperlink ref="B62" r:id="rId52" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
-    <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
-    <hyperlink ref="B64" r:id="rId54" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
-    <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
-    <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
-    <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
-    <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
-    <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
-    <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
-    <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
-    <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
-    <hyperlink ref="B75" r:id="rId65" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
-    <hyperlink ref="B76" r:id="rId66" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
-    <hyperlink ref="B77" r:id="rId67" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
-    <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
-    <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
-    <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
-    <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
-    <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
-    <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
-    <hyperlink ref="B87" r:id="rId77" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
-    <hyperlink ref="B88" r:id="rId78" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
-    <hyperlink ref="B89" r:id="rId79" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
-    <hyperlink ref="B90" r:id="rId80" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
-    <hyperlink ref="B91" r:id="rId81" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
-    <hyperlink ref="B92" r:id="rId82" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
-    <hyperlink ref="B93" r:id="rId83" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
-    <hyperlink ref="B94" r:id="rId84" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
-    <hyperlink ref="B95" r:id="rId85" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
-    <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
-    <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
-    <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
-    <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
-    <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
-    <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
-    <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
-    <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
-    <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
-    <hyperlink ref="B118" r:id="rId104" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
-    <hyperlink ref="B119" r:id="rId105" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
-    <hyperlink ref="B120" r:id="rId106" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
-    <hyperlink ref="B121" r:id="rId107" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
-    <hyperlink ref="B122" r:id="rId108" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
-    <hyperlink ref="B123" r:id="rId109" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
-    <hyperlink ref="B124" r:id="rId110" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
-    <hyperlink ref="B125" r:id="rId111" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
-    <hyperlink ref="B126" r:id="rId112" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
-    <hyperlink ref="B127" r:id="rId113" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
-    <hyperlink ref="B128" r:id="rId114" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
-    <hyperlink ref="B129" r:id="rId115" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
-    <hyperlink ref="B130" r:id="rId116" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
-    <hyperlink ref="B131" r:id="rId117" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
-    <hyperlink ref="B132" r:id="rId118" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
-    <hyperlink ref="B133" r:id="rId119" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
-    <hyperlink ref="B134" r:id="rId120" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
-    <hyperlink ref="B135" r:id="rId121" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
-    <hyperlink ref="B136" r:id="rId122" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
-    <hyperlink ref="B105" r:id="rId123" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
-    <hyperlink ref="B112" r:id="rId124" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
-    <hyperlink ref="B139" r:id="rId125" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
-    <hyperlink ref="B140" r:id="rId126" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
-    <hyperlink ref="B141" r:id="rId127" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
-    <hyperlink ref="B142" r:id="rId128" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
-    <hyperlink ref="B143" r:id="rId129" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
-    <hyperlink ref="B144" r:id="rId130" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
-    <hyperlink ref="B145" r:id="rId131" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
-    <hyperlink ref="B146" r:id="rId132" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
-    <hyperlink ref="B147" r:id="rId133" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
-    <hyperlink ref="B148" r:id="rId134" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
-    <hyperlink ref="B149" r:id="rId135" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
-    <hyperlink ref="B150" r:id="rId136" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
-    <hyperlink ref="B151" r:id="rId137" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
-    <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
-    <hyperlink ref="B153" r:id="rId139" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
-    <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
-    <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
-    <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
-    <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
-    <hyperlink ref="B160" r:id="rId146" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
-    <hyperlink ref="B161" r:id="rId147" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
-    <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
-    <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
-    <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
-    <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
-    <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
-    <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
-    <hyperlink ref="B171" r:id="rId155" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
-    <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
-    <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
-    <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
-    <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
-    <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
-    <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
-    <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
-    <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
-    <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
-    <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
-    <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
-    <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
-    <hyperlink ref="B193" r:id="rId175" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
-    <hyperlink ref="B194" r:id="rId176" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
-    <hyperlink ref="B195" r:id="rId177" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
-    <hyperlink ref="B196" r:id="rId178" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
-    <hyperlink ref="B198" r:id="rId180" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
-    <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
-    <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
-    <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
-    <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
-    <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
-    <hyperlink ref="B206" r:id="rId188" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
-    <hyperlink ref="B207" r:id="rId189" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
-    <hyperlink ref="B208" r:id="rId190" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
-    <hyperlink ref="B209" r:id="rId191" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
-    <hyperlink ref="B210" r:id="rId192" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
-    <hyperlink ref="B211" r:id="rId193" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId194" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
-    <hyperlink ref="B215" r:id="rId195" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
-    <hyperlink ref="B216" r:id="rId196" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
-    <hyperlink ref="B217" r:id="rId197" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
-    <hyperlink ref="B218" r:id="rId198" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
-    <hyperlink ref="B219" r:id="rId199" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
-    <hyperlink ref="B220" r:id="rId200" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
-    <hyperlink ref="B221" r:id="rId201" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
-    <hyperlink ref="B222" r:id="rId202" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
-    <hyperlink ref="B223" r:id="rId203" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
-    <hyperlink ref="B224" r:id="rId204" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
-    <hyperlink ref="B225" r:id="rId205" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
-    <hyperlink ref="B226" r:id="rId206" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
-    <hyperlink ref="B227" r:id="rId207" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
-    <hyperlink ref="B228" r:id="rId208" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
-    <hyperlink ref="B229" r:id="rId209" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
-    <hyperlink ref="B230" r:id="rId210" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
-    <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
-    <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
-    <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
-    <hyperlink ref="B239" r:id="rId217" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
-    <hyperlink ref="B240" r:id="rId218" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
-    <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
-    <hyperlink ref="B242" r:id="rId220" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
-    <hyperlink ref="B243" r:id="rId221" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
-    <hyperlink ref="B244" r:id="rId222" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
-    <hyperlink ref="B245" r:id="rId223" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
-    <hyperlink ref="B246" r:id="rId224" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
-    <hyperlink ref="B247" r:id="rId225" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
-    <hyperlink ref="B248" r:id="rId226" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
-    <hyperlink ref="B249" r:id="rId227" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
-    <hyperlink ref="B250" r:id="rId228" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
-    <hyperlink ref="B251" r:id="rId229" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
-    <hyperlink ref="B252" r:id="rId230" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
-    <hyperlink ref="B253" r:id="rId231" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
-    <hyperlink ref="B254" r:id="rId232" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
-    <hyperlink ref="B255" r:id="rId233" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
-    <hyperlink ref="B256" r:id="rId234" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
-    <hyperlink ref="B258" r:id="rId236" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
-    <hyperlink ref="B259" r:id="rId237" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
-    <hyperlink ref="B260" r:id="rId238" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
-    <hyperlink ref="B261" r:id="rId239" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
-    <hyperlink ref="B262" r:id="rId240" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
-    <hyperlink ref="B263" r:id="rId241" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
-    <hyperlink ref="B264" r:id="rId242" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
-    <hyperlink ref="B265" r:id="rId243" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
-    <hyperlink ref="B266" r:id="rId244" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
-    <hyperlink ref="B267" r:id="rId245" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
-    <hyperlink ref="B268" r:id="rId246" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
-    <hyperlink ref="B269" r:id="rId247" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
-    <hyperlink ref="B270" r:id="rId248" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
-    <hyperlink ref="B271" r:id="rId249" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
-    <hyperlink ref="B272" r:id="rId250" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
-    <hyperlink ref="B275" r:id="rId251" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
-    <hyperlink ref="B276" r:id="rId252" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
-    <hyperlink ref="B277" r:id="rId253" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
-    <hyperlink ref="B278" r:id="rId254" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
-    <hyperlink ref="B279" r:id="rId255" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
-    <hyperlink ref="B280" r:id="rId256" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
-    <hyperlink ref="B281" r:id="rId257" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
-    <hyperlink ref="B282" r:id="rId258" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
-    <hyperlink ref="B283" r:id="rId259" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
-    <hyperlink ref="B284" r:id="rId260" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
-    <hyperlink ref="B285" r:id="rId261" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
-    <hyperlink ref="B286" r:id="rId262" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
-    <hyperlink ref="B287" r:id="rId263" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
-    <hyperlink ref="B288" r:id="rId264" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
-    <hyperlink ref="B289" r:id="rId265" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
-    <hyperlink ref="B290" r:id="rId266" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
-    <hyperlink ref="B291" r:id="rId267" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
-    <hyperlink ref="B292" r:id="rId268" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
-    <hyperlink ref="B293" r:id="rId269" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
-    <hyperlink ref="B296" r:id="rId270" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
-    <hyperlink ref="B297" r:id="rId271" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
-    <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
-    <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
-    <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
-    <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
-    <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
-    <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
-    <hyperlink ref="B305" r:id="rId279" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
-    <hyperlink ref="B307" r:id="rId281" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
-    <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
-    <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
-    <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
-    <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
-    <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
-    <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
-    <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
-    <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
-    <hyperlink ref="B322" r:id="rId296" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
-    <hyperlink ref="B323" r:id="rId297" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
-    <hyperlink ref="B324" r:id="rId298" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
-    <hyperlink ref="B325" r:id="rId299" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
-    <hyperlink ref="B326" r:id="rId300" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
-    <hyperlink ref="B327" r:id="rId301" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
-    <hyperlink ref="B328" r:id="rId302" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
-    <hyperlink ref="B329" r:id="rId303" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
-    <hyperlink ref="B330" r:id="rId304" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
-    <hyperlink ref="B331" r:id="rId305" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
-    <hyperlink ref="B332" r:id="rId306" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
-    <hyperlink ref="B333" r:id="rId307" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
-    <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
-    <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
-    <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
-    <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
-    <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
-    <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
-    <hyperlink ref="B343" r:id="rId315" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
-    <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
-    <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
-    <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
-    <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
-    <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
-    <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
-    <hyperlink ref="B351" r:id="rId323" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
-    <hyperlink ref="B352" r:id="rId324" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
-    <hyperlink ref="B353" r:id="rId325" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
-    <hyperlink ref="B357" r:id="rId326" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
-    <hyperlink ref="B358" r:id="rId327" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
-    <hyperlink ref="B359" r:id="rId328" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
-    <hyperlink ref="B360" r:id="rId329" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
-    <hyperlink ref="B361" r:id="rId330" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
-    <hyperlink ref="B362" r:id="rId331" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
-    <hyperlink ref="B363" r:id="rId332" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
-    <hyperlink ref="B364" r:id="rId333" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
-    <hyperlink ref="B365" r:id="rId334" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
-    <hyperlink ref="B366" r:id="rId335" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
-    <hyperlink ref="B367" r:id="rId336" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
-    <hyperlink ref="B368" r:id="rId337" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
-    <hyperlink ref="B369" r:id="rId338" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
-    <hyperlink ref="B370" r:id="rId339" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
-    <hyperlink ref="B371" r:id="rId340" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
-    <hyperlink ref="B372" r:id="rId341" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
-    <hyperlink ref="B373" r:id="rId342" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
-    <hyperlink ref="B374" r:id="rId343" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
-    <hyperlink ref="B375" r:id="rId344" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
-    <hyperlink ref="B376" r:id="rId345" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
-    <hyperlink ref="B377" r:id="rId346" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
-    <hyperlink ref="B378" r:id="rId347" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
-    <hyperlink ref="B380" r:id="rId349" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
-    <hyperlink ref="B381" r:id="rId350" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
-    <hyperlink ref="B382" r:id="rId351" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
-    <hyperlink ref="B383" r:id="rId352" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
-    <hyperlink ref="B384" r:id="rId353" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
-    <hyperlink ref="B385" r:id="rId354" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
-    <hyperlink ref="B386" r:id="rId355" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
-    <hyperlink ref="B387" r:id="rId356" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
-    <hyperlink ref="B388" r:id="rId357" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
-    <hyperlink ref="B389" r:id="rId358" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
-    <hyperlink ref="B390" r:id="rId359" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
-    <hyperlink ref="B391" r:id="rId360" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
-    <hyperlink ref="B392" r:id="rId361" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
-    <hyperlink ref="B393" r:id="rId362" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
-    <hyperlink ref="B394" r:id="rId363" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
-    <hyperlink ref="B396" r:id="rId364" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
-    <hyperlink ref="B395" r:id="rId365" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
-    <hyperlink ref="B397" r:id="rId366" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
-    <hyperlink ref="B398" r:id="rId367" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
-    <hyperlink ref="B399" r:id="rId368" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
-    <hyperlink ref="B402" r:id="rId369" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
-    <hyperlink ref="B403" r:id="rId370" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
-    <hyperlink ref="B404" r:id="rId371" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
-    <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
-    <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
-    <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
-    <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
-    <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
-    <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
-    <hyperlink ref="B414" r:id="rId379" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
-    <hyperlink ref="B415" r:id="rId380" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
-    <hyperlink ref="B416" r:id="rId381" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
-    <hyperlink ref="B417" r:id="rId382" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
-    <hyperlink ref="B418" r:id="rId383" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
-    <hyperlink ref="B419" r:id="rId384" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
-    <hyperlink ref="B420" r:id="rId385" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
-    <hyperlink ref="B421" r:id="rId386" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
-    <hyperlink ref="B422" r:id="rId387" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
-    <hyperlink ref="B423" r:id="rId388" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
-    <hyperlink ref="B424" r:id="rId389" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
-    <hyperlink ref="B425" r:id="rId390" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
-    <hyperlink ref="B426" r:id="rId391" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
-    <hyperlink ref="B427" r:id="rId392" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
-    <hyperlink ref="B428" r:id="rId393" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
-    <hyperlink ref="B429" r:id="rId394" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
-    <hyperlink ref="B430" r:id="rId395" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
-    <hyperlink ref="B431" r:id="rId396" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
-    <hyperlink ref="B432" r:id="rId397" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
-    <hyperlink ref="B433" r:id="rId398" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
-    <hyperlink ref="B434" r:id="rId399" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
-    <hyperlink ref="B435" r:id="rId400" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
-    <hyperlink ref="B436" r:id="rId401" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
-    <hyperlink ref="B437" r:id="rId402" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
-    <hyperlink ref="B438" r:id="rId403" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
-    <hyperlink ref="B439" r:id="rId404" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
-    <hyperlink ref="B440" r:id="rId405" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
-    <hyperlink ref="B441" r:id="rId406" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
-    <hyperlink ref="B442" r:id="rId407" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
-    <hyperlink ref="B443" r:id="rId408" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
-    <hyperlink ref="B444" r:id="rId409" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
-    <hyperlink ref="B445" r:id="rId410" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
-    <hyperlink ref="B446" r:id="rId411" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
-    <hyperlink ref="B447" r:id="rId412" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
-    <hyperlink ref="B448" r:id="rId413" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
-    <hyperlink ref="B449" r:id="rId414" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
-    <hyperlink ref="B451" r:id="rId415" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
-    <hyperlink ref="B450" r:id="rId416" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
-    <hyperlink ref="B452" r:id="rId417" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
-    <hyperlink ref="B453" r:id="rId418" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
-    <hyperlink ref="B454" r:id="rId419" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
-    <hyperlink ref="B455" r:id="rId420" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
-    <hyperlink ref="B456" r:id="rId421" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
-    <hyperlink ref="B457" r:id="rId422" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
-    <hyperlink ref="B458" r:id="rId423" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
-    <hyperlink ref="B459" r:id="rId424" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
-    <hyperlink ref="B460" r:id="rId425" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
-    <hyperlink ref="B461" r:id="rId426" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
-    <hyperlink ref="B462" r:id="rId427" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
-    <hyperlink ref="B469" r:id="rId428" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
-    <hyperlink ref="B468" r:id="rId429" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
-    <hyperlink ref="B467" r:id="rId430" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
-    <hyperlink ref="B466" r:id="rId431" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
-    <hyperlink ref="B464" r:id="rId433" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
-    <hyperlink ref="B463" r:id="rId434" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
-    <hyperlink ref="B472" r:id="rId435" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
-    <hyperlink ref="B473" r:id="rId436" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
-    <hyperlink ref="B474" r:id="rId437" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
-    <hyperlink ref="B475" r:id="rId438" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
-    <hyperlink ref="B476" r:id="rId439" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
-    <hyperlink ref="B477" r:id="rId440" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
-    <hyperlink ref="B478" r:id="rId441" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
-    <hyperlink ref="B481" r:id="rId442" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
-    <hyperlink ref="B479" r:id="rId443" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
-    <hyperlink ref="B356" r:id="rId445" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
-    <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{B0C21764-2962-1649-8AFA-10FB9420C5FC}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{9282CC15-9B38-E54B-B64C-557745C9C00A}"/>
+    <hyperlink ref="B24" r:id="rId18" xr:uid="{3BCCEBE2-AC3B-AC4F-8BA9-439ACEA133D4}"/>
+    <hyperlink ref="B25" r:id="rId19" xr:uid="{74F8D761-6EBF-594A-A6C7-40DE4CE96958}"/>
+    <hyperlink ref="B26" r:id="rId20" xr:uid="{79947FE6-D417-D644-81D8-D058180550A0}"/>
+    <hyperlink ref="B27" r:id="rId21" xr:uid="{2BF3F606-410B-264D-BF60-191C34D616BB}"/>
+    <hyperlink ref="B28" r:id="rId22" xr:uid="{CD98DB26-0F2F-FD40-A989-53FE548D7D34}"/>
+    <hyperlink ref="B29" r:id="rId23" xr:uid="{307032A1-F8EF-1A48-BFE3-EA3283D39BE2}"/>
+    <hyperlink ref="B30" r:id="rId24" xr:uid="{AA329F36-941A-9241-9402-9D220B05E719}"/>
+    <hyperlink ref="B31" r:id="rId25" xr:uid="{9E851DAC-0E30-B340-84F9-721D70B66919}"/>
+    <hyperlink ref="B32" r:id="rId26" xr:uid="{468380BA-4978-A645-ABD0-E74FD3E6BDBB}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{289E6890-8CCB-D645-9B3F-6138FFC1C249}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{8EABDC68-858F-784A-A8F1-C603E3B8C1FE}"/>
+    <hyperlink ref="B35" r:id="rId29" xr:uid="{6157E427-1210-3F45-A4DC-6DFD2373B9CF}"/>
+    <hyperlink ref="B36" r:id="rId30" xr:uid="{2D7BA55E-9947-FF4D-BC09-FB4A5ADA07EC}"/>
+    <hyperlink ref="B37" r:id="rId31" xr:uid="{3337C74F-8B73-E64E-A6DA-5D9F7C7B4D32}"/>
+    <hyperlink ref="B38" r:id="rId32" xr:uid="{02370124-E58D-B540-BBCF-98266229556D}"/>
+    <hyperlink ref="B39" r:id="rId33" xr:uid="{F2DE2162-BD02-7549-AC1A-27455F78131F}"/>
+    <hyperlink ref="B40" r:id="rId34" xr:uid="{6FA286B9-3994-624D-B0B8-C01657D110AD}"/>
+    <hyperlink ref="B41" r:id="rId35" xr:uid="{6EFBEDA1-5C10-2547-8FB2-44E977513B28}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{090EC515-BEBE-514E-BA59-A84E450B4211}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{0A0557FD-77E5-564B-B100-147D544A38B4}"/>
+    <hyperlink ref="B46" r:id="rId38" xr:uid="{3F82F2E0-AA59-5042-B079-F3B3C6FF2FD7}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{FFF7D257-1F58-5A4B-AAA2-F5480AED86C7}"/>
+    <hyperlink ref="B48" r:id="rId40" xr:uid="{353E28FA-E36D-7447-9DE8-787DF11C4669}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{F9B53127-FC98-FE43-B53F-BFDBCE2A4427}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{40685BBC-CE24-624E-9ABB-98490B7DE0E4}"/>
+    <hyperlink ref="B51" r:id="rId43" xr:uid="{7733D505-2EC7-E346-B3DA-C980C7CE0B27}"/>
+    <hyperlink ref="B52" r:id="rId44" xr:uid="{E8C1FE00-7B4B-5745-8E4B-CD44B6C749E3}"/>
+    <hyperlink ref="B53" r:id="rId45" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
+    <hyperlink ref="B56" r:id="rId46" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
+    <hyperlink ref="B57" r:id="rId47" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
+    <hyperlink ref="B58" r:id="rId48" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B60" r:id="rId49" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
+    <hyperlink ref="B61" r:id="rId50" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B62" r:id="rId51" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
+    <hyperlink ref="B63" r:id="rId52" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
+    <hyperlink ref="B64" r:id="rId53" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
+    <hyperlink ref="B65" r:id="rId54" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
+    <hyperlink ref="B66" r:id="rId55" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
+    <hyperlink ref="B67" r:id="rId56" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B68" r:id="rId57" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
+    <hyperlink ref="B69" r:id="rId58" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
+    <hyperlink ref="B70" r:id="rId59" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
+    <hyperlink ref="B71" r:id="rId60" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B72" r:id="rId61" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
+    <hyperlink ref="B73" r:id="rId62" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
+    <hyperlink ref="B74" r:id="rId63" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
+    <hyperlink ref="B75" r:id="rId64" xr:uid="{58E70966-BBE0-7743-A250-AE4DD57807DE}"/>
+    <hyperlink ref="B76" r:id="rId65" xr:uid="{09409FE3-9D7E-4F43-BB21-14A1B8D6E480}"/>
+    <hyperlink ref="B77" r:id="rId66" xr:uid="{E199A3DC-3DA1-C648-93C0-DF9CD5331204}"/>
+    <hyperlink ref="B78" r:id="rId67" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
+    <hyperlink ref="B79" r:id="rId68" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
+    <hyperlink ref="B80" r:id="rId69" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
+    <hyperlink ref="B81" r:id="rId70" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B82" r:id="rId71" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B83" r:id="rId72" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B84" r:id="rId73" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
+    <hyperlink ref="B85" r:id="rId74" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
+    <hyperlink ref="B86" r:id="rId75" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
+    <hyperlink ref="B87" r:id="rId76" xr:uid="{62982242-1D19-1544-8653-8E25E9BF4505}"/>
+    <hyperlink ref="B88" r:id="rId77" xr:uid="{8E3D4BDF-9F8F-0542-BFD8-C3CE3BF396E6}"/>
+    <hyperlink ref="B89" r:id="rId78" xr:uid="{A3D51762-65A1-9A44-B619-D1D98A7F403B}"/>
+    <hyperlink ref="B90" r:id="rId79" xr:uid="{ED0F5FC7-0066-EB44-8FCF-460600DADB02}"/>
+    <hyperlink ref="B91" r:id="rId80" xr:uid="{2D956AC4-4774-7446-8473-C4CE00E33C17}"/>
+    <hyperlink ref="B92" r:id="rId81" xr:uid="{C8C607BB-1FEE-FA47-9E3E-6C0BCE978B7F}"/>
+    <hyperlink ref="B93" r:id="rId82" xr:uid="{B9AC5194-6D36-684A-A5C4-BEE11037599F}"/>
+    <hyperlink ref="B94" r:id="rId83" xr:uid="{AB28D9E6-890C-F14A-A5FB-2303BE319968}"/>
+    <hyperlink ref="B95" r:id="rId84" xr:uid="{1F507CBC-4056-AD46-9314-95ECBB9D799D}"/>
+    <hyperlink ref="B96" r:id="rId85" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
+    <hyperlink ref="B97" r:id="rId86" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
+    <hyperlink ref="B98" r:id="rId87" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
+    <hyperlink ref="B101" r:id="rId88" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B102" r:id="rId89" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B103" r:id="rId90" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
+    <hyperlink ref="B104" r:id="rId91" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
+    <hyperlink ref="B106" r:id="rId92" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B107" r:id="rId93" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B108" r:id="rId94" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B109" r:id="rId95" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
+    <hyperlink ref="B110" r:id="rId96" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B111" r:id="rId97" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B113" r:id="rId98" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B114" r:id="rId99" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B115" r:id="rId100" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
+    <hyperlink ref="B116" r:id="rId101" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
+    <hyperlink ref="B117" r:id="rId102" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
+    <hyperlink ref="B118" r:id="rId103" xr:uid="{117878E5-B8C8-254B-8ED6-014B4B7A8126}"/>
+    <hyperlink ref="B119" r:id="rId104" xr:uid="{B7CC0756-74F2-D54D-BDEE-9DA394DD7168}"/>
+    <hyperlink ref="B120" r:id="rId105" xr:uid="{837EF472-CCC2-CF47-A8A8-238E56F722CE}"/>
+    <hyperlink ref="B121" r:id="rId106" xr:uid="{3608F267-6AA0-624B-B243-7DDD317E9F08}"/>
+    <hyperlink ref="B122" r:id="rId107" xr:uid="{0B6123E6-0472-374B-ACA7-6914CD7918E8}"/>
+    <hyperlink ref="B123" r:id="rId108" xr:uid="{D3971CEB-C53E-B04B-9C32-1803182B5DC5}"/>
+    <hyperlink ref="B124" r:id="rId109" xr:uid="{7CF5013A-643E-1643-93A1-A2F1500D2A23}"/>
+    <hyperlink ref="B125" r:id="rId110" xr:uid="{2A6BE7E5-D818-6843-8C3E-99EA2BFE0FB2}"/>
+    <hyperlink ref="B126" r:id="rId111" xr:uid="{E718F544-96DF-A04E-8DFB-7639DA3EA57C}"/>
+    <hyperlink ref="B127" r:id="rId112" xr:uid="{B0C2F065-424A-7345-A864-346ECD98D749}"/>
+    <hyperlink ref="B128" r:id="rId113" xr:uid="{B4E26955-5C3F-804E-B19A-11260310AFB3}"/>
+    <hyperlink ref="B129" r:id="rId114" xr:uid="{6F299BB5-8E82-0240-A9A3-6829CE3ABCBF}"/>
+    <hyperlink ref="B130" r:id="rId115" xr:uid="{A42CA32F-2196-1840-A53D-E5073237C68D}"/>
+    <hyperlink ref="B131" r:id="rId116" xr:uid="{7ECF6EF4-962E-4642-9B1C-C3B70674793E}"/>
+    <hyperlink ref="B132" r:id="rId117" xr:uid="{2A109178-6B60-164E-9D25-42B3282137E3}"/>
+    <hyperlink ref="B133" r:id="rId118" xr:uid="{B3D38BD0-A6A1-8D41-8405-45E1BEEEEF06}"/>
+    <hyperlink ref="B134" r:id="rId119" xr:uid="{A1C26612-D040-2A41-A6A6-A8F2490C0A43}"/>
+    <hyperlink ref="B135" r:id="rId120" xr:uid="{C476E807-64CB-F44A-A23D-D21EBF6D001D}"/>
+    <hyperlink ref="B136" r:id="rId121" xr:uid="{9A414D55-D4A1-F147-9207-61B597D57136}"/>
+    <hyperlink ref="B105" r:id="rId122" xr:uid="{18B028A7-9B6F-D841-8548-924D70530779}"/>
+    <hyperlink ref="B112" r:id="rId123" xr:uid="{6D3E75EF-733F-7A4B-81C8-AEF6CB6335F0}"/>
+    <hyperlink ref="B139" r:id="rId124" xr:uid="{C9EB2682-BE0B-934B-B0B4-1DD1A1502647}"/>
+    <hyperlink ref="B140" r:id="rId125" xr:uid="{2992FED9-2B78-A342-92AA-E7C0F882FF17}"/>
+    <hyperlink ref="B141" r:id="rId126" xr:uid="{0084DA6F-EC84-BD48-BDA8-EBACA3BB3B3E}"/>
+    <hyperlink ref="B142" r:id="rId127" xr:uid="{30F2D415-4B2C-384C-8EAE-2CC71CB518E2}"/>
+    <hyperlink ref="B143" r:id="rId128" xr:uid="{40734C88-7C5B-9747-86D1-03463D9AD41A}"/>
+    <hyperlink ref="B144" r:id="rId129" xr:uid="{1040D22F-6729-104A-A229-CBDCED93024A}"/>
+    <hyperlink ref="B145" r:id="rId130" xr:uid="{E131FE61-FABF-8E4B-8EF0-F68379D8F836}"/>
+    <hyperlink ref="B146" r:id="rId131" xr:uid="{B2129272-1351-3745-883B-E6A7115450C8}"/>
+    <hyperlink ref="B147" r:id="rId132" xr:uid="{C8B2DEF0-2B69-C84E-8013-0B6F03FFC250}"/>
+    <hyperlink ref="B148" r:id="rId133" xr:uid="{536AC5CF-712F-BF48-94A9-D0E7DC013020}"/>
+    <hyperlink ref="B149" r:id="rId134" xr:uid="{2DABC9C7-43D4-1249-AF9B-5FA4552611CB}"/>
+    <hyperlink ref="B150" r:id="rId135" xr:uid="{DA62E73A-B495-F94A-BECE-D42E4CBF074A}"/>
+    <hyperlink ref="B151" r:id="rId136" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
+    <hyperlink ref="B152" r:id="rId137" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
+    <hyperlink ref="B153" r:id="rId138" xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
+    <hyperlink ref="B154" r:id="rId139" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B155" r:id="rId140" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
+    <hyperlink ref="B156" r:id="rId141" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B157" r:id="rId142" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
+    <hyperlink ref="B158" r:id="rId143" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
+    <hyperlink ref="B159" r:id="rId144" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
+    <hyperlink ref="B160" r:id="rId145" xr:uid="{0AAA4B0C-4921-C34D-B41E-D702FA860892}"/>
+    <hyperlink ref="B161" r:id="rId146" xr:uid="{5973FCA4-AE32-5248-A6ED-2694367332F1}"/>
+    <hyperlink ref="B162" r:id="rId147" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
+    <hyperlink ref="B163" r:id="rId148" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
+    <hyperlink ref="B166" r:id="rId149" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
+    <hyperlink ref="B167" r:id="rId150" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B168" r:id="rId151" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
+    <hyperlink ref="B169" r:id="rId152" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
+    <hyperlink ref="B170" r:id="rId153" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
+    <hyperlink ref="B171" r:id="rId154" xr:uid="{955769DB-3256-254B-90DE-E1E01B272F8A}"/>
+    <hyperlink ref="B172" r:id="rId155" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
+    <hyperlink ref="B173" r:id="rId156" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
+    <hyperlink ref="B174" r:id="rId157" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
+    <hyperlink ref="B177" r:id="rId158" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B178" r:id="rId159" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
+    <hyperlink ref="B179" r:id="rId160" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B180" r:id="rId161" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B181" r:id="rId162" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B182" r:id="rId163" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
+    <hyperlink ref="B183" r:id="rId164" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
+    <hyperlink ref="B184" r:id="rId165" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
+    <hyperlink ref="B185" r:id="rId166" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
+    <hyperlink ref="B186" r:id="rId167" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B187" r:id="rId168" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
+    <hyperlink ref="B188" r:id="rId169" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B189" r:id="rId170" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B190" r:id="rId171" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
+    <hyperlink ref="B191" r:id="rId172" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
+    <hyperlink ref="B192" r:id="rId173" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
+    <hyperlink ref="B193" r:id="rId174" xr:uid="{6C198DA2-BB98-F940-8EF6-2FC8B7AE577A}"/>
+    <hyperlink ref="B194" r:id="rId175" xr:uid="{AB0EA311-A446-D046-A0EC-290B42068328}"/>
+    <hyperlink ref="B195" r:id="rId176" xr:uid="{DB913045-B9F6-6549-AA09-22B0CC5FDD21}"/>
+    <hyperlink ref="B196" r:id="rId177" xr:uid="{806469FD-617A-7445-AAB5-FB2FD2ED24EA}"/>
+    <hyperlink ref="B197" r:id="rId178" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{1A10544E-58CF-D04D-9FAF-2FEC6DB2B5D4}"/>
+    <hyperlink ref="B198" r:id="rId179" xr:uid="{5A0B6645-89FD-E044-A706-9FB890274C3C}"/>
+    <hyperlink ref="B199" r:id="rId180" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
+    <hyperlink ref="B200" r:id="rId181" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
+    <hyperlink ref="B201" r:id="rId182" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
+    <hyperlink ref="B202" r:id="rId183" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B203" r:id="rId184" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
+    <hyperlink ref="B204" r:id="rId185" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
+    <hyperlink ref="B205" r:id="rId186" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
+    <hyperlink ref="B206" r:id="rId187" xr:uid="{0F6A542C-44C9-5A4C-90BF-BC8C239877D2}"/>
+    <hyperlink ref="B207" r:id="rId188" xr:uid="{3ED28203-B1B5-4E46-AAF3-779EDD4AC03F}"/>
+    <hyperlink ref="B208" r:id="rId189" xr:uid="{4338B305-B52F-5540-9B51-B938FC6803A2}"/>
+    <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
+    <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
+    <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
+    <hyperlink ref="B214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
+    <hyperlink ref="B216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
+    <hyperlink ref="B217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>
+    <hyperlink ref="B218" r:id="rId197" xr:uid="{C1C5C8D0-7A06-3D4A-A85A-AAACC1B418C9}"/>
+    <hyperlink ref="B219" r:id="rId198" xr:uid="{D525D4B1-2857-1543-8CD9-196728321203}"/>
+    <hyperlink ref="B220" r:id="rId199" xr:uid="{51E3AB9B-04B2-C041-A2B3-37E3EB18013A}"/>
+    <hyperlink ref="B221" r:id="rId200" xr:uid="{7F7F0C9A-57B9-314F-959A-B8ACAFA5FD13}"/>
+    <hyperlink ref="B222" r:id="rId201" xr:uid="{3B029785-83B4-6140-8B70-CD892CFC87F6}"/>
+    <hyperlink ref="B223" r:id="rId202" xr:uid="{B0A390E6-D860-9F4E-B021-68949FE712F3}"/>
+    <hyperlink ref="B224" r:id="rId203" xr:uid="{49E9953D-52F6-BF47-8AAA-8E456F55576B}"/>
+    <hyperlink ref="B225" r:id="rId204" xr:uid="{9B812470-F419-A54E-8365-06A9B8864A30}"/>
+    <hyperlink ref="B226" r:id="rId205" xr:uid="{B6FB4107-1933-6D45-9EF4-4474E06CBE9D}"/>
+    <hyperlink ref="B227" r:id="rId206" xr:uid="{0F7C1D92-7BCB-D14D-A658-9599984E04E4}"/>
+    <hyperlink ref="B228" r:id="rId207" xr:uid="{6810428F-0A78-964C-A8C8-E1CD2E7C405D}"/>
+    <hyperlink ref="B229" r:id="rId208" xr:uid="{B40209F2-0D6E-364F-8AF6-F1D182509314}"/>
+    <hyperlink ref="B230" r:id="rId209" xr:uid="{96C53FA9-9FD3-2D4F-B292-3C9DEDFA806E}"/>
+    <hyperlink ref="B231" r:id="rId210" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
+    <hyperlink ref="B232" r:id="rId211" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
+    <hyperlink ref="B233" r:id="rId212" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
+    <hyperlink ref="B234" r:id="rId213" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B235" r:id="rId214" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B238" r:id="rId215" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B239" r:id="rId216" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
+    <hyperlink ref="B240" r:id="rId217" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
+    <hyperlink ref="B241" r:id="rId218" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
+    <hyperlink ref="B242" r:id="rId219" xr:uid="{3AE2F800-B66F-1A41-893B-978F6875FDC8}"/>
+    <hyperlink ref="B243" r:id="rId220" xr:uid="{2C939BDE-5298-5541-837B-8C59D53A33C1}"/>
+    <hyperlink ref="B244" r:id="rId221" xr:uid="{691C9BD8-69D3-DA4B-AEB6-AF827B4ACA9F}"/>
+    <hyperlink ref="B245" r:id="rId222" xr:uid="{B6891E82-7C4D-424D-9219-3C9FD08E0053}"/>
+    <hyperlink ref="B246" r:id="rId223" xr:uid="{67A1AE98-62D2-644D-AC13-6CD76CF53CC0}"/>
+    <hyperlink ref="B247" r:id="rId224" xr:uid="{B59D4881-2A82-8F4D-B151-1E796C4923C8}"/>
+    <hyperlink ref="B248" r:id="rId225" xr:uid="{B3CBD023-5EFD-6048-9B3F-89F0C65CBBF5}"/>
+    <hyperlink ref="B249" r:id="rId226" xr:uid="{53EC42C4-22F7-0445-A0AC-7275A59A2672}"/>
+    <hyperlink ref="B250" r:id="rId227" xr:uid="{A29575F3-CB24-5B4B-9538-D5212B2DC28B}"/>
+    <hyperlink ref="B251" r:id="rId228" xr:uid="{353A44DD-9E30-8F48-8E2B-8DAA07550470}"/>
+    <hyperlink ref="B252" r:id="rId229" xr:uid="{32AC291D-95A5-BE49-88E0-02677BF39CAC}"/>
+    <hyperlink ref="B253" r:id="rId230" xr:uid="{A84F22FF-AD10-A546-8998-B066C0EB2D5A}"/>
+    <hyperlink ref="B254" r:id="rId231" xr:uid="{4C5CAF84-9B94-FC44-8C6C-B3CC7257C1DB}"/>
+    <hyperlink ref="B255" r:id="rId232" xr:uid="{5DA775E2-C516-3B47-8C82-3CEE7CC0BDF9}"/>
+    <hyperlink ref="B256" r:id="rId233" xr:uid="{00B6AE5C-EF3F-0747-A280-3BF055362B4F}"/>
+    <hyperlink ref="B257" r:id="rId234" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{BCBD0A7E-F3D0-E840-9375-AFD37C5CD41A}"/>
+    <hyperlink ref="B258" r:id="rId235" xr:uid="{47ABDDDB-F95F-8049-9FB3-1E71A7376DDE}"/>
+    <hyperlink ref="B259" r:id="rId236" xr:uid="{70BADFC9-7399-234D-99F6-4C5F02397C26}"/>
+    <hyperlink ref="B260" r:id="rId237" xr:uid="{63348580-70EF-EC47-BF49-8ECE9560D54E}"/>
+    <hyperlink ref="B261" r:id="rId238" xr:uid="{D5BD96B3-9EAB-1B47-AC87-5C47F6AD7F40}"/>
+    <hyperlink ref="B262" r:id="rId239" xr:uid="{74791141-3FB8-7540-B45B-9541AF0AE371}"/>
+    <hyperlink ref="B263" r:id="rId240" xr:uid="{88D53CD6-262A-7247-8E58-FE9FFF7ECC40}"/>
+    <hyperlink ref="B264" r:id="rId241" xr:uid="{4338A14D-4F7D-B943-A347-7F74EFCA0DB5}"/>
+    <hyperlink ref="B265" r:id="rId242" xr:uid="{6E0EF7A3-7341-284B-A0E3-4539B6EAFAF2}"/>
+    <hyperlink ref="B266" r:id="rId243" xr:uid="{D2D8D64F-E2D3-734E-AD45-3EFB9686555A}"/>
+    <hyperlink ref="B267" r:id="rId244" xr:uid="{04A2904A-73A0-7845-9868-2CCFE359AC68}"/>
+    <hyperlink ref="B268" r:id="rId245" xr:uid="{D3D35835-6BE3-4D41-AF6F-5FE442277A16}"/>
+    <hyperlink ref="B269" r:id="rId246" xr:uid="{F663D0FC-CFF0-BC4F-9D26-48C871A8E9FD}"/>
+    <hyperlink ref="B270" r:id="rId247" xr:uid="{DF544147-DA48-4041-A4E2-4A75106B771A}"/>
+    <hyperlink ref="B271" r:id="rId248" xr:uid="{50E4B716-239E-7946-843D-E8462591D128}"/>
+    <hyperlink ref="B272" r:id="rId249" xr:uid="{D368B3E5-7D12-FD48-AFF7-A4A614108940}"/>
+    <hyperlink ref="B275" r:id="rId250" xr:uid="{D5921FF1-FC1F-CA4B-A24E-AD69E1DEC14C}"/>
+    <hyperlink ref="B276" r:id="rId251" xr:uid="{C931D7E0-E032-7C4B-95F1-735D955FCB51}"/>
+    <hyperlink ref="B277" r:id="rId252" xr:uid="{5FBD4A8F-287C-2C46-9CAB-F7DBA67DEDDA}"/>
+    <hyperlink ref="B278" r:id="rId253" xr:uid="{12966DD6-41DD-A94B-8B2C-0AD7D2AD6FB0}"/>
+    <hyperlink ref="B279" r:id="rId254" xr:uid="{CF720C34-4554-2944-A818-020ABC9BF0F4}"/>
+    <hyperlink ref="B280" r:id="rId255" xr:uid="{75763F2A-16D7-DE43-8189-19623CE26370}"/>
+    <hyperlink ref="B281" r:id="rId256" xr:uid="{9263AA30-472A-0A4D-BADF-96D82BB9BFCC}"/>
+    <hyperlink ref="B282" r:id="rId257" xr:uid="{2EF025C3-75C8-564E-BA8B-708C32B0E602}"/>
+    <hyperlink ref="B283" r:id="rId258" xr:uid="{6BDFDCA9-3421-F24F-8EF2-A72742F0AC21}"/>
+    <hyperlink ref="B284" r:id="rId259" xr:uid="{D8447F99-5FF9-D544-99BB-E9969B4A38D7}"/>
+    <hyperlink ref="B285" r:id="rId260" xr:uid="{1DB7EFDA-6C7D-F546-9EE1-F61ED0F65209}"/>
+    <hyperlink ref="B286" r:id="rId261" xr:uid="{D1505609-27D1-784D-ACF6-AE9D0DA2E1B6}"/>
+    <hyperlink ref="B287" r:id="rId262" xr:uid="{6BFA7B45-17D0-4E49-85DA-23C7255A306D}"/>
+    <hyperlink ref="B288" r:id="rId263" xr:uid="{3324BA4A-30CA-5246-8C3C-6505A6987939}"/>
+    <hyperlink ref="B289" r:id="rId264" xr:uid="{894486AD-2B6D-5740-BCAF-0BA1AFF814B4}"/>
+    <hyperlink ref="B290" r:id="rId265" xr:uid="{C47B203B-8B5A-E740-8C86-0784AD28089E}"/>
+    <hyperlink ref="B291" r:id="rId266" xr:uid="{06DC2E54-7597-AE4D-ACDB-B8883A989A4F}"/>
+    <hyperlink ref="B292" r:id="rId267" xr:uid="{E3384259-7CA7-1C44-A66D-11346EE6742E}"/>
+    <hyperlink ref="B293" r:id="rId268" xr:uid="{A5B77769-38AF-3D47-A76B-311591B57D91}"/>
+    <hyperlink ref="B296" r:id="rId269" xr:uid="{9DB6976A-C646-1341-90E8-3A164521267A}"/>
+    <hyperlink ref="B297" r:id="rId270" xr:uid="{03C291F8-D19A-304B-9EF9-CF71A1F66E49}"/>
+    <hyperlink ref="B298" r:id="rId271" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
+    <hyperlink ref="B299" r:id="rId272" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
+    <hyperlink ref="B300" r:id="rId273" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
+    <hyperlink ref="B301" r:id="rId274" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B302" r:id="rId275" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
+    <hyperlink ref="B303" r:id="rId276" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
+    <hyperlink ref="B304" r:id="rId277" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
+    <hyperlink ref="B305" r:id="rId278" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
+    <hyperlink ref="B306" r:id="rId279" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
+    <hyperlink ref="B307" r:id="rId280" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
+    <hyperlink ref="B308" r:id="rId281" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId282" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId283" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId284" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B312" r:id="rId285" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
+    <hyperlink ref="B313" r:id="rId286" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B314" r:id="rId287" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
+    <hyperlink ref="B315" r:id="rId288" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
+    <hyperlink ref="B316" r:id="rId289" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
+    <hyperlink ref="B317" r:id="rId290" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
+    <hyperlink ref="B318" r:id="rId291" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B319" r:id="rId292" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
+    <hyperlink ref="B320" r:id="rId293" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
+    <hyperlink ref="B321" r:id="rId294" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
+    <hyperlink ref="B322" r:id="rId295" xr:uid="{A8BFB3A4-426B-E646-BCF0-FE19C8CD07A9}"/>
+    <hyperlink ref="B323" r:id="rId296" xr:uid="{FBBA29BB-885B-744A-A644-58EDCA7B140A}"/>
+    <hyperlink ref="B324" r:id="rId297" xr:uid="{75411687-6884-AC42-8B4A-1348C4837365}"/>
+    <hyperlink ref="B325" r:id="rId298" xr:uid="{A89ED8DF-F678-FE43-808C-C190721379BF}"/>
+    <hyperlink ref="B326" r:id="rId299" xr:uid="{1516834D-F3B2-1743-8811-263E11BBDEF8}"/>
+    <hyperlink ref="B327" r:id="rId300" xr:uid="{1659AB91-08CA-E44D-988D-E9D9A746D406}"/>
+    <hyperlink ref="B328" r:id="rId301" xr:uid="{E844BC1D-9713-9F4D-B0A4-1124A9952D14}"/>
+    <hyperlink ref="B329" r:id="rId302" xr:uid="{DCE2AAEF-8D8E-1843-BFE9-E9B7E13854EB}"/>
+    <hyperlink ref="B330" r:id="rId303" xr:uid="{836B3BF0-7711-7D41-9E72-914C1871397F}"/>
+    <hyperlink ref="B331" r:id="rId304" xr:uid="{F450CF9B-CA59-1443-8163-13F1121DCF12}"/>
+    <hyperlink ref="B332" r:id="rId305" xr:uid="{1539C3E8-4854-3C4F-A7B3-55BF931F1E2A}"/>
+    <hyperlink ref="B333" r:id="rId306" xr:uid="{04F1FC5F-5DA1-0144-962D-B38C1C41F0F4}"/>
+    <hyperlink ref="B336" r:id="rId307" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
+    <hyperlink ref="B337" r:id="rId308" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
+    <hyperlink ref="B338" r:id="rId309" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
+    <hyperlink ref="B339" r:id="rId310" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B340" r:id="rId311" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
+    <hyperlink ref="B341" r:id="rId312" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
+    <hyperlink ref="B342" r:id="rId313" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
+    <hyperlink ref="B343" r:id="rId314" xr:uid="{3BBD1BAC-68C7-A94A-9063-AF62B5C837FD}"/>
+    <hyperlink ref="B344" r:id="rId315" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
+    <hyperlink ref="B345" r:id="rId316" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
+    <hyperlink ref="B346" r:id="rId317" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
+    <hyperlink ref="B347" r:id="rId318" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B348" r:id="rId319" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
+    <hyperlink ref="B349" r:id="rId320" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
+    <hyperlink ref="B350" r:id="rId321" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
+    <hyperlink ref="B351" r:id="rId322" xr:uid="{BB63E040-7A1A-E046-9BDD-9CBD1DA89DE9}"/>
+    <hyperlink ref="B352" r:id="rId323" xr:uid="{9AF8FD93-CCC9-D540-AE9A-00583F309649}"/>
+    <hyperlink ref="B353" r:id="rId324" xr:uid="{66A746A0-71FE-E546-92B7-D1C3D582E067}"/>
+    <hyperlink ref="B357" r:id="rId325" xr:uid="{BD79CCE1-5315-3944-9F9B-618615EC4583}"/>
+    <hyperlink ref="B358" r:id="rId326" xr:uid="{A5068A51-C961-6847-BB27-40A850B6D393}"/>
+    <hyperlink ref="B359" r:id="rId327" xr:uid="{6B8D36F0-E796-B944-A456-E8A9E2EE0BDB}"/>
+    <hyperlink ref="B360" r:id="rId328" xr:uid="{776652B7-2C11-4641-BF6A-EABEEB9B55AB}"/>
+    <hyperlink ref="B361" r:id="rId329" xr:uid="{95C6B35D-712A-2343-B790-236B55C5EC49}"/>
+    <hyperlink ref="B362" r:id="rId330" xr:uid="{4ED53872-1FE9-F140-AA35-F228F762880B}"/>
+    <hyperlink ref="B363" r:id="rId331" xr:uid="{6D5E6A28-85AA-BF4C-B2BD-9378D6E28EC7}"/>
+    <hyperlink ref="B364" r:id="rId332" xr:uid="{BCAD1ECB-15EE-CF49-878E-AA682DE3AC22}"/>
+    <hyperlink ref="B365" r:id="rId333" xr:uid="{C85468B5-25E9-E446-808E-72CFE911F0C2}"/>
+    <hyperlink ref="B366" r:id="rId334" xr:uid="{9503AECA-1A6A-9640-A04C-4CEAA2304448}"/>
+    <hyperlink ref="B367" r:id="rId335" xr:uid="{74211516-06B0-AA45-845B-52C8202751DA}"/>
+    <hyperlink ref="B368" r:id="rId336" xr:uid="{02C696BC-4B91-9444-900F-9CD68E409ABC}"/>
+    <hyperlink ref="B369" r:id="rId337" xr:uid="{04646C45-4118-374C-839D-94D31D534FAC}"/>
+    <hyperlink ref="B370" r:id="rId338" xr:uid="{F90BCCAE-8596-FC4D-BDD7-774392C596DF}"/>
+    <hyperlink ref="B371" r:id="rId339" xr:uid="{65230925-36EC-8A4B-8E46-6350B9BC0F95}"/>
+    <hyperlink ref="B372" r:id="rId340" xr:uid="{E91B8177-0C7A-1F40-BD34-4CC60F03B84F}"/>
+    <hyperlink ref="B373" r:id="rId341" xr:uid="{E8CBFD60-7335-0B4D-9FF5-99B4A8DC551D}"/>
+    <hyperlink ref="B374" r:id="rId342" xr:uid="{A35F55D4-9B87-C745-94DB-E7D820193C30}"/>
+    <hyperlink ref="B375" r:id="rId343" xr:uid="{6461A29F-D404-334F-B13F-296B4CA5E8A4}"/>
+    <hyperlink ref="B376" r:id="rId344" xr:uid="{FA9B4BE7-85CC-B24F-9461-5E9B42DDD824}"/>
+    <hyperlink ref="B377" r:id="rId345" xr:uid="{A75ACEA2-CDF6-A147-8540-A6DF55B15F45}"/>
+    <hyperlink ref="B378" r:id="rId346" xr:uid="{62FF87E2-E658-AB4D-AC57-7BCF9D49516E}"/>
+    <hyperlink ref="B379" r:id="rId347" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{269338A6-5145-6944-9F7F-BD2A86DFA308}"/>
+    <hyperlink ref="B380" r:id="rId348" xr:uid="{8F583049-CE8D-CD42-88CD-CF3857942670}"/>
+    <hyperlink ref="B381" r:id="rId349" xr:uid="{EE2348AD-E296-894A-B5AE-5884A3C5E419}"/>
+    <hyperlink ref="B382" r:id="rId350" xr:uid="{6EACB34E-B32E-8F43-8055-2406F7417A7E}"/>
+    <hyperlink ref="B383" r:id="rId351" xr:uid="{2446F10A-B762-B64C-97B2-6131A0BECC1F}"/>
+    <hyperlink ref="B384" r:id="rId352" xr:uid="{6FDFCC53-17A6-7244-88A7-49406D7C9200}"/>
+    <hyperlink ref="B385" r:id="rId353" xr:uid="{3EC43646-EAB1-E443-A2F6-8E6E5FC77083}"/>
+    <hyperlink ref="B386" r:id="rId354" xr:uid="{659D9F20-C862-C947-B422-84143CFE317F}"/>
+    <hyperlink ref="B387" r:id="rId355" xr:uid="{3F5192FE-1C50-C049-88D5-68FA0F5430A0}"/>
+    <hyperlink ref="B388" r:id="rId356" xr:uid="{5EAD7CDA-9545-454B-BE77-9AFEC6AC1083}"/>
+    <hyperlink ref="B389" r:id="rId357" xr:uid="{761E5451-736B-6745-9CF5-4C6EF5D4C099}"/>
+    <hyperlink ref="B390" r:id="rId358" xr:uid="{4C8677A9-D94C-134F-AF31-E424751BF867}"/>
+    <hyperlink ref="B391" r:id="rId359" xr:uid="{CCF7920F-D5CE-004A-86C3-D821FB230970}"/>
+    <hyperlink ref="B392" r:id="rId360" xr:uid="{B4C07A0A-1EDD-7947-9646-3FD603441AD7}"/>
+    <hyperlink ref="B393" r:id="rId361" xr:uid="{49F7BB43-6851-0641-9DC5-27DBC66706F6}"/>
+    <hyperlink ref="B394" r:id="rId362" xr:uid="{77038647-48C7-5547-8E0F-898610362465}"/>
+    <hyperlink ref="B396" r:id="rId363" xr:uid="{EEFFE19C-6571-C64F-A0E1-5A4A700D94D4}"/>
+    <hyperlink ref="B395" r:id="rId364" xr:uid="{A4A2BFC4-6B88-2E4E-B362-17D8EE041C89}"/>
+    <hyperlink ref="B397" r:id="rId365" xr:uid="{DC5B603A-8D65-3648-A08A-E5FFA0FAE879}"/>
+    <hyperlink ref="B398" r:id="rId366" xr:uid="{F8807DD9-F4F2-B147-9C31-DBC93B2E477B}"/>
+    <hyperlink ref="B399" r:id="rId367" xr:uid="{6F7B396C-D7E9-C04E-BAE2-53D2EE07172B}"/>
+    <hyperlink ref="B402" r:id="rId368" xr:uid="{0D4A5941-C669-4A49-BAE3-9B553D03BD0F}"/>
+    <hyperlink ref="B403" r:id="rId369" xr:uid="{54144336-5BCA-D749-962A-E448C2CED3D3}"/>
+    <hyperlink ref="B404" r:id="rId370" xr:uid="{3A41DD21-CACF-1F48-A7C7-F568C6F31F3E}"/>
+    <hyperlink ref="B405" r:id="rId371" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
+    <hyperlink ref="B406" r:id="rId372" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
+    <hyperlink ref="B407" r:id="rId373" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
+    <hyperlink ref="B410" r:id="rId374" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B411" r:id="rId375" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
+    <hyperlink ref="B412" r:id="rId376" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
+    <hyperlink ref="B413" r:id="rId377" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
+    <hyperlink ref="B414" r:id="rId378" xr:uid="{830C5466-10E3-7A48-B3E7-35C15A1CA4EF}"/>
+    <hyperlink ref="B415" r:id="rId379" xr:uid="{1B987077-E9D3-6F40-89EE-0D4E7180D884}"/>
+    <hyperlink ref="B416" r:id="rId380" xr:uid="{D4843E1F-7226-864E-A4BB-264D5A487B6D}"/>
+    <hyperlink ref="B417" r:id="rId381" xr:uid="{61816592-2D19-9946-8253-47A60218F2EA}"/>
+    <hyperlink ref="B418" r:id="rId382" xr:uid="{736C840F-19A3-0A4B-8863-ECB772B46385}"/>
+    <hyperlink ref="B419" r:id="rId383" xr:uid="{05A238AD-3C5B-C546-94E9-75BBF964711A}"/>
+    <hyperlink ref="B420" r:id="rId384" xr:uid="{7029629C-3F2A-4A49-997B-CFE86EC8B3C2}"/>
+    <hyperlink ref="B421" r:id="rId385" xr:uid="{ADA66B57-2FAC-AB42-BD83-4931708F3AB5}"/>
+    <hyperlink ref="B422" r:id="rId386" xr:uid="{F16BF1F9-755B-B045-B9A8-0B97E3BAC8B0}"/>
+    <hyperlink ref="B423" r:id="rId387" xr:uid="{ECCE930A-B960-234C-81EC-4B8514282AE9}"/>
+    <hyperlink ref="B424" r:id="rId388" xr:uid="{7AA58141-7D24-7C42-A0C1-F852B21CFFD9}"/>
+    <hyperlink ref="B425" r:id="rId389" xr:uid="{B1FCB47D-7921-3446-B2C7-72CBA815D056}"/>
+    <hyperlink ref="B426" r:id="rId390" xr:uid="{8C547719-AA03-3543-B31F-7300674AF4C5}"/>
+    <hyperlink ref="B427" r:id="rId391" xr:uid="{09922668-AFC0-F242-860E-9967E0F0FEF4}"/>
+    <hyperlink ref="B428" r:id="rId392" xr:uid="{0DA963DA-238B-D44E-9E03-6E6BD933B35E}"/>
+    <hyperlink ref="B429" r:id="rId393" xr:uid="{89518AFF-2526-C845-BC9D-95FE77AF416E}"/>
+    <hyperlink ref="B430" r:id="rId394" xr:uid="{FAECBBBE-196C-7A41-A0FB-E0597CB2CF51}"/>
+    <hyperlink ref="B431" r:id="rId395" xr:uid="{8126B039-0B25-B040-A0F6-C3457341A2E9}"/>
+    <hyperlink ref="B432" r:id="rId396" xr:uid="{6CB326E6-E698-EB42-884B-C89FFA33E3BA}"/>
+    <hyperlink ref="B433" r:id="rId397" xr:uid="{8C97EFD1-933F-A44F-A1CF-6386233104A2}"/>
+    <hyperlink ref="B434" r:id="rId398" xr:uid="{8F019F07-8532-E147-8BE1-4EBE833F61CA}"/>
+    <hyperlink ref="B435" r:id="rId399" xr:uid="{00F1A08F-3767-784A-97A3-4603DE38BACC}"/>
+    <hyperlink ref="B436" r:id="rId400" xr:uid="{2A84ADCB-071F-9A48-994D-7A838307EFD8}"/>
+    <hyperlink ref="B437" r:id="rId401" xr:uid="{132F8C6D-D5E8-6440-AC4E-B81EA2100416}"/>
+    <hyperlink ref="B438" r:id="rId402" xr:uid="{2DA6EAC2-1A1D-754F-9613-226CBC7890AF}"/>
+    <hyperlink ref="B439" r:id="rId403" xr:uid="{05BED99A-4562-D14E-8627-D07CF5335A9B}"/>
+    <hyperlink ref="B440" r:id="rId404" xr:uid="{111D902A-3F60-2D4B-89D3-5BCBD8AA38DD}"/>
+    <hyperlink ref="B441" r:id="rId405" xr:uid="{F19236BE-AC32-3542-9214-DFC3BAE04ED0}"/>
+    <hyperlink ref="B442" r:id="rId406" xr:uid="{4D97CD96-EA1B-664E-9380-EFD27077D273}"/>
+    <hyperlink ref="B443" r:id="rId407" xr:uid="{49A46D91-633F-A148-ACFA-49B7D1AA4B33}"/>
+    <hyperlink ref="B444" r:id="rId408" xr:uid="{7C3B7901-67E3-EA4D-BC64-21A78BC03AC6}"/>
+    <hyperlink ref="B445" r:id="rId409" xr:uid="{B27CA8C3-D34F-5E4D-94A5-11D14AFD0F82}"/>
+    <hyperlink ref="B446" r:id="rId410" xr:uid="{8FECE038-9764-5E4A-8C6E-9B3209812651}"/>
+    <hyperlink ref="B447" r:id="rId411" xr:uid="{95696D4B-89CB-5640-BE92-53B3C043F7EB}"/>
+    <hyperlink ref="B448" r:id="rId412" xr:uid="{DA74B737-802A-4944-A93E-0B9C8417630B}"/>
+    <hyperlink ref="B449" r:id="rId413" xr:uid="{B2C4C168-50FA-AF41-8F56-9E70613CF17D}"/>
+    <hyperlink ref="B451" r:id="rId414" xr:uid="{B7090C60-AC27-3F4F-8F0D-42F0791928C6}"/>
+    <hyperlink ref="B450" r:id="rId415" xr:uid="{07400041-66C6-514B-B3E3-427F2947C2B7}"/>
+    <hyperlink ref="B452" r:id="rId416" xr:uid="{B7E78172-8FB8-4E42-87D8-6A4654D79C62}"/>
+    <hyperlink ref="B453" r:id="rId417" xr:uid="{9A5D4670-BC64-334A-88CF-6F8287692C5E}"/>
+    <hyperlink ref="B454" r:id="rId418" xr:uid="{604283B6-53BC-044F-8D9D-E6094E798317}"/>
+    <hyperlink ref="B455" r:id="rId419" xr:uid="{5EB15AC7-3E0E-E44C-A5B9-32F30F234B5A}"/>
+    <hyperlink ref="B456" r:id="rId420" xr:uid="{3076BD5F-4B23-4146-A50A-499C9FF4C3D2}"/>
+    <hyperlink ref="B457" r:id="rId421" xr:uid="{6A29D9C2-1E78-1B43-A251-0AB0A97FA70E}"/>
+    <hyperlink ref="B458" r:id="rId422" xr:uid="{00597D5E-D693-DF4E-84C0-47E58A6ACA8F}"/>
+    <hyperlink ref="B459" r:id="rId423" xr:uid="{48640988-9964-0B4C-A014-83E2CEB3D632}"/>
+    <hyperlink ref="B460" r:id="rId424" xr:uid="{617AADC9-7534-FE45-96B0-EF4C1867B793}"/>
+    <hyperlink ref="B461" r:id="rId425" xr:uid="{7F8CDAA4-5094-8E4E-961B-41CDE5ACC0C0}"/>
+    <hyperlink ref="B462" r:id="rId426" xr:uid="{63F28ABD-12CF-5947-80DA-229E3CA3133E}"/>
+    <hyperlink ref="B469" r:id="rId427" xr:uid="{0A1DB92C-3315-1942-B27D-4B90986A6D9D}"/>
+    <hyperlink ref="B468" r:id="rId428" xr:uid="{11738B67-CADD-5D45-8417-8BE7A03FC79F}"/>
+    <hyperlink ref="B467" r:id="rId429" xr:uid="{B2B23748-D9E4-BE4F-A93E-49ECB4063831}"/>
+    <hyperlink ref="B466" r:id="rId430" xr:uid="{A2FB8A72-37B9-7E4A-B050-FD6CD20BCE73}"/>
+    <hyperlink ref="B465" r:id="rId431" xr:uid="{5A93C9AF-BFEB-EB40-95AC-C309ED09A604}"/>
+    <hyperlink ref="B464" r:id="rId432" xr:uid="{CC203923-2DC2-874B-B846-A8455E3CC2F2}"/>
+    <hyperlink ref="B463" r:id="rId433" xr:uid="{FCB0246E-0179-B447-B3CE-C60CDB388472}"/>
+    <hyperlink ref="B472" r:id="rId434" xr:uid="{F06CEE72-8CA4-C547-862C-39B86CD3226A}"/>
+    <hyperlink ref="B473" r:id="rId435" xr:uid="{CB3045F2-8D63-0F4E-85BC-AF016DB4F247}"/>
+    <hyperlink ref="B474" r:id="rId436" xr:uid="{667D57F5-E5AD-674F-A2F5-AFF4A14E4026}"/>
+    <hyperlink ref="B475" r:id="rId437" xr:uid="{27A13A65-56CE-BF4D-BA0D-EB87D910272D}"/>
+    <hyperlink ref="B476" r:id="rId438" xr:uid="{2C72A52E-6F06-0246-AEB5-93CD0DEA8866}"/>
+    <hyperlink ref="B477" r:id="rId439" xr:uid="{24B29046-B4DD-674B-9EDF-6C94BEC3FDD8}"/>
+    <hyperlink ref="B478" r:id="rId440" xr:uid="{D018EBC3-3FB3-AC4D-9D64-D218345A46C8}"/>
+    <hyperlink ref="B481" r:id="rId441" xr:uid="{1E1D3964-01E0-3145-ACFE-B6A5BF0EECB0}"/>
+    <hyperlink ref="B479" r:id="rId442" xr:uid="{FA0E5061-A7E2-C045-9671-1CD9446D1932}"/>
+    <hyperlink ref="B480" r:id="rId443" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{92704F5B-7B31-2F42-80DD-764B2206D9DB}"/>
+    <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
+    <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
+    <hyperlink ref="B21" r:id="rId446" xr:uid="{7D991EC5-D672-43E5-B55D-6188A0212954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17DF43A-A3F1-46DA-97D0-9D40281B3F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB1BCC-B3BE-47B5-B5A0-1CFC0EE92DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2054,7 +2054,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2065,7 +2065,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2076,7 +2076,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2087,7 +2087,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2098,7 +2098,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2109,7 +2109,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D24" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2120,7 +2123,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D25" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BB1BCC-B3BE-47B5-B5A0-1CFC0EE92DA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053A159-F3E4-4350-96E9-AAA46FFE91C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>Revise</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2137,7 +2140,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D26" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2148,7 +2154,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D27" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2159,7 +2168,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D28" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2170,7 +2182,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2181,7 +2193,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2192,7 +2204,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D31" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2203,7 +2218,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9053A159-F3E4-4350-96E9-AAA46FFE91C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3FB2C-5DB7-4D63-9B01-C426E0202162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1432,6 +1432,9 @@
   </si>
   <si>
     <t>Nice</t>
+  </si>
+  <si>
+    <t>QuickSort For O(n)</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1872,6 +1875,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
@@ -2221,7 +2225,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" spans="1:4" ht="21">
       <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
@@ -2229,10 +2233,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="21">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2240,10 +2244,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D34" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="21">
       <c r="A35" s="5" t="s">
         <v>5</v>
       </c>
@@ -2251,10 +2258,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="21">
       <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
@@ -2262,10 +2269,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="21">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
@@ -2273,10 +2280,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="21">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -2284,10 +2294,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="21">
       <c r="A39" s="5" t="s">
         <v>5</v>
       </c>
@@ -2295,10 +2308,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="21">
       <c r="A40" s="5" t="s">
         <v>5</v>
       </c>
@@ -2306,10 +2319,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="21">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2317,23 +2330,23 @@
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="21">
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" spans="1:4" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" spans="1:4" ht="21">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" spans="1:4" ht="21">
       <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" spans="1:4" ht="21">
       <c r="A46" s="8" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" spans="1:4" ht="21">
       <c r="A47" s="8" t="s">
         <v>41</v>
       </c>
@@ -2377,7 +2390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" spans="1:4" ht="21">
       <c r="A48" s="8" t="s">
         <v>41</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D3FB2C-5DB7-4D63-9B01-C426E0202162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706FD31-1BC0-49FB-B2CF-763D098042C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2354,7 +2354,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2376,7 +2376,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2387,7 +2387,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2398,7 +2398,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706FD31-1BC0-49FB-B2CF-763D098042C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924FA33-A035-4A46-A18C-47A988B0D4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>QuickSort For O(n)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +1870,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2401,7 +2404,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" spans="1:4" ht="21">
       <c r="A49" s="8" t="s">
         <v>41</v>
       </c>
@@ -2409,10 +2412,13 @@
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D49" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="21">
       <c r="A50" s="8" t="s">
         <v>41</v>
       </c>
@@ -2420,10 +2426,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D50" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21">
       <c r="A51" s="8" t="s">
         <v>41</v>
       </c>
@@ -2431,10 +2440,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="21">
       <c r="A52" s="8" t="s">
         <v>41</v>
       </c>
@@ -2442,10 +2451,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+      <c r="D52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="21">
       <c r="A53" s="8" t="s">
         <v>41</v>
       </c>
@@ -2453,15 +2465,15 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="21">
       <c r="A55" s="5"/>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" spans="1:4" ht="21">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
@@ -2472,7 +2484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" spans="1:4" ht="21">
       <c r="A57" s="5" t="s">
         <v>52</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" spans="1:4" ht="21">
       <c r="A58" s="5" t="s">
         <v>52</v>
       </c>
@@ -2494,7 +2506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" spans="1:4" ht="21">
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
@@ -2505,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" spans="1:4" ht="21">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" spans="1:4" ht="21">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" spans="1:4" ht="21">
       <c r="A62" s="5" t="s">
         <v>52</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" spans="1:4" ht="21">
       <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" spans="1:4" ht="21">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924FA33-A035-4A46-A18C-47A988B0D4E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ABA9AB-5FA3-4ED2-9917-4BA07B01D5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2481,7 +2481,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2492,7 +2492,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2503,7 +2503,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D58" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2514,7 +2517,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2525,7 +2528,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2536,7 +2539,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2547,7 +2550,10 @@
         <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D62" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
@@ -2558,7 +2564,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2569,10 +2575,13 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="21">
       <c r="A65" s="5" t="s">
         <v>52</v>
       </c>
@@ -2580,10 +2589,10 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="21">
       <c r="A66" s="5" t="s">
         <v>52</v>
       </c>
@@ -2591,10 +2600,10 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="21">
       <c r="A67" s="5" t="s">
         <v>52</v>
       </c>
@@ -2602,10 +2611,10 @@
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="21">
       <c r="A68" s="5" t="s">
         <v>52</v>
       </c>
@@ -2613,10 +2622,13 @@
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="21">
       <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
@@ -2624,10 +2636,13 @@
         <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="21">
       <c r="A70" s="5" t="s">
         <v>52</v>
       </c>
@@ -2635,10 +2650,10 @@
         <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="21">
       <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
@@ -2649,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" spans="1:4" ht="21">
       <c r="A72" s="5" t="s">
         <v>52</v>
       </c>
@@ -2660,7 +2675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" spans="1:4" ht="21">
       <c r="A73" s="5" t="s">
         <v>52</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" spans="1:4" ht="21">
       <c r="A74" s="5" t="s">
         <v>52</v>
       </c>
@@ -2682,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" spans="1:4" ht="21">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" spans="1:4" ht="21">
       <c r="A76" s="5" t="s">
         <v>52</v>
       </c>
@@ -2704,7 +2719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" spans="1:4" ht="21">
       <c r="A77" s="5" t="s">
         <v>52</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
         <v>52</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
         <v>52</v>
       </c>
@@ -2737,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
         <v>52</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ABA9AB-5FA3-4ED2-9917-4BA07B01D5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C344C-BD1B-4FB4-A840-F128D6DF9259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2661,7 +2661,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -2672,7 +2672,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D72" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -2683,7 +2686,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -2694,7 +2697,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -2705,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C344C-BD1B-4FB4-A840-F128D6DF9259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED8E69E-EF45-47FF-B3E6-0E8F7C78D3F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-2100" windowWidth="24240" windowHeight="13140" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-22575" yWindow="-945" windowWidth="20985" windowHeight="9555" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="470">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2719,7 +2722,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -2732,6 +2735,9 @@
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D77" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="21">
       <c r="A78" s="5" t="s">
@@ -2743,6 +2749,9 @@
       <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D78" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="21">
       <c r="A79" s="5" t="s">
@@ -2754,6 +2763,9 @@
       <c r="C79" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D79" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="21">
       <c r="A80" s="5" t="s">
@@ -2763,7 +2775,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D80" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
@@ -2774,7 +2789,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
@@ -2785,7 +2800,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">
@@ -2796,7 +2811,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
@@ -2807,7 +2822,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
@@ -2818,7 +2833,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED8E69E-EF45-47FF-B3E6-0E8F7C78D3F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46907C04-14A8-4206-8783-0674B21F77FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22575" yWindow="-945" windowWidth="20985" windowHeight="9555" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>Revise (Imp)</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2781,7 +2784,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" spans="1:4" ht="21">
       <c r="A81" s="5" t="s">
         <v>52</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" spans="1:4" ht="21">
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
@@ -2803,7 +2806,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" spans="1:4" ht="21">
       <c r="A83" s="5" t="s">
         <v>52</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" spans="1:4" ht="21">
       <c r="A84" s="5" t="s">
         <v>52</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" spans="1:4" ht="21">
       <c r="A85" s="5" t="s">
         <v>52</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" spans="1:4" ht="21">
       <c r="A86" s="5" t="s">
         <v>52</v>
       </c>
@@ -2844,10 +2847,13 @@
         <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="21">
       <c r="A87" s="5" t="s">
         <v>52</v>
       </c>
@@ -2855,10 +2861,10 @@
         <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="21">
       <c r="A88" s="5" t="s">
         <v>52</v>
       </c>
@@ -2866,10 +2872,10 @@
         <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="21">
       <c r="A89" s="5" t="s">
         <v>52</v>
       </c>
@@ -2877,10 +2883,10 @@
         <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21">
       <c r="A90" s="5" t="s">
         <v>52</v>
       </c>
@@ -2888,10 +2894,13 @@
         <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D90" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21">
       <c r="A91" s="5" t="s">
         <v>52</v>
       </c>
@@ -2899,10 +2908,13 @@
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21">
       <c r="A92" s="5" t="s">
         <v>52</v>
       </c>
@@ -2910,10 +2922,10 @@
         <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="21">
       <c r="A93" s="5" t="s">
         <v>52</v>
       </c>
@@ -2921,10 +2933,10 @@
         <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="21">
       <c r="A94" s="5" t="s">
         <v>52</v>
       </c>
@@ -2932,10 +2944,10 @@
         <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="21">
       <c r="A95" s="5" t="s">
         <v>52</v>
       </c>
@@ -2943,10 +2955,10 @@
         <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="21">
       <c r="A96" s="5" t="s">
         <v>52</v>
       </c>
@@ -2954,10 +2966,13 @@
         <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D96" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="21">
       <c r="A97" s="5" t="s">
         <v>52</v>
       </c>
@@ -2965,10 +2980,13 @@
         <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D97" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="21">
       <c r="A98" s="5" t="s">
         <v>52</v>
       </c>
@@ -2976,15 +2994,18 @@
         <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D98" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="21">
       <c r="A100" s="8"/>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" spans="1:4" ht="21">
       <c r="A101" s="5" t="s">
         <v>96</v>
       </c>
@@ -2995,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" spans="1:4" ht="21">
       <c r="A102" s="5" t="s">
         <v>96</v>
       </c>
@@ -3006,7 +3027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" spans="1:4" ht="21">
       <c r="A103" s="5" t="s">
         <v>96</v>
       </c>
@@ -3017,7 +3038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" spans="1:4" ht="21">
       <c r="A104" s="5" t="s">
         <v>96</v>
       </c>
@@ -3028,7 +3049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" spans="1:4" ht="21">
       <c r="A105" s="5" t="s">
         <v>96</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" spans="1:4" ht="21">
       <c r="A106" s="5" t="s">
         <v>96</v>
       </c>
@@ -3050,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" spans="1:4" ht="21">
       <c r="A107" s="5" t="s">
         <v>96</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" spans="1:4" ht="21">
       <c r="A108" s="5" t="s">
         <v>96</v>
       </c>
@@ -3072,7 +3093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" spans="1:4" ht="21">
       <c r="A109" s="5" t="s">
         <v>96</v>
       </c>
@@ -3083,7 +3104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:4" ht="21">
       <c r="A110" s="5" t="s">
         <v>96</v>
       </c>
@@ -3094,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" spans="1:4" ht="21">
       <c r="A111" s="5" t="s">
         <v>96</v>
       </c>
@@ -3105,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" spans="1:4" ht="21">
       <c r="A112" s="5" t="s">
         <v>96</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46907C04-14A8-4206-8783-0674B21F77FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEFFAC-BA9A-4447-9668-BDADA9436D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22575" yWindow="-945" windowWidth="20985" windowHeight="9555" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>Revise (Imp)</t>
+  </si>
+  <si>
+    <t>Imp, Revise</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1875,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3013,7 +3019,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3024,7 +3030,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3035,7 +3041,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D103" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3046,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3057,7 +3066,7 @@
         <v>101</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
@@ -3068,7 +3077,10 @@
         <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D106" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
@@ -3079,7 +3091,7 @@
         <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3089,8 +3101,9 @@
       <c r="B108" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
+      <c r="C108" s="4"/>
+      <c r="D108" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3101,7 +3114,7 @@
         <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3112,7 +3125,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3137,7 +3150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" spans="1:4" ht="21">
       <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
@@ -3148,7 +3161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" spans="1:4" ht="21">
       <c r="A114" s="5" t="s">
         <v>96</v>
       </c>
@@ -3156,10 +3169,13 @@
         <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D114" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="21">
       <c r="A115" s="5" t="s">
         <v>96</v>
       </c>
@@ -3170,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" spans="1:4" ht="21">
       <c r="A116" s="5" t="s">
         <v>96</v>
       </c>
@@ -3181,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" spans="1:4" ht="21">
       <c r="A117" s="5" t="s">
         <v>96</v>
       </c>
@@ -3192,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" spans="1:4" ht="21">
       <c r="A118" s="5" t="s">
         <v>96</v>
       </c>
@@ -3200,10 +3216,13 @@
         <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D118" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="21">
       <c r="A119" s="5" t="s">
         <v>96</v>
       </c>
@@ -3211,10 +3230,10 @@
         <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="21">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="21">
       <c r="A120" s="5" t="s">
         <v>96</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" spans="1:4" ht="21">
       <c r="A121" s="5" t="s">
         <v>96</v>
       </c>
@@ -3236,7 +3255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" spans="1:4" ht="21">
       <c r="A122" s="5" t="s">
         <v>96</v>
       </c>
@@ -3247,7 +3266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" spans="1:4" ht="21">
       <c r="A123" s="5" t="s">
         <v>96</v>
       </c>
@@ -3258,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" spans="1:4" ht="21">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
@@ -3269,7 +3288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" spans="1:4" ht="21">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
@@ -3280,7 +3299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" spans="1:4" ht="21">
       <c r="A126" s="5" t="s">
         <v>96</v>
       </c>
@@ -3291,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" spans="1:4" ht="21">
       <c r="A127" s="5" t="s">
         <v>96</v>
       </c>
@@ -3302,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" spans="1:4" ht="21">
       <c r="A128" s="5" t="s">
         <v>96</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EEFFAC-BA9A-4447-9668-BDADA9436D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59A93F-A1C0-4DD6-9910-4FFC545094BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>DP</t>
   </si>
 </sst>
 </file>
@@ -1882,7 +1885,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3136,7 +3139,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3147,7 +3150,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">
@@ -3158,7 +3161,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">
@@ -3183,7 +3186,10 @@
         <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D115" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
@@ -3194,7 +3200,7 @@
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">
@@ -3205,7 +3211,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59A93F-A1C0-4DD6-9910-4FFC545094BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4720C-A4E4-4F70-9EF7-303289FCA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="474">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3258,7 +3258,7 @@
         <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21">
@@ -3269,7 +3269,7 @@
         <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21">
@@ -3280,7 +3280,7 @@
         <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
@@ -3291,7 +3291,10 @@
         <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
+      </c>
+      <c r="D124" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21">
@@ -3302,7 +3305,10 @@
         <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D125" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21">
@@ -3313,7 +3319,7 @@
         <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4720C-A4E4-4F70-9EF7-303289FCA235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2929A-2D2E-408A-B8A9-19F14349E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,18 @@
   </si>
   <si>
     <t>DP</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/subsets-sum-b/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory </t>
+  </si>
+  <si>
+    <t>Revise, Imp</t>
+  </si>
+  <si>
+    <t>Re-TRY</t>
   </si>
 </sst>
 </file>
@@ -1882,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3330,7 +3342,10 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
+      </c>
+      <c r="D127" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
@@ -3341,10 +3356,10 @@
         <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="21">
       <c r="A129" s="5" t="s">
         <v>96</v>
       </c>
@@ -3352,10 +3367,13 @@
         <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D129" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="21">
       <c r="A130" s="5" t="s">
         <v>96</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" spans="1:5" ht="21">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
@@ -3377,7 +3395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" spans="1:5" ht="21">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
@@ -3385,10 +3403,10 @@
         <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="21">
       <c r="A133" s="5" t="s">
         <v>96</v>
       </c>
@@ -3396,10 +3414,16 @@
         <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+      <c r="D133" t="s">
+        <v>465</v>
+      </c>
+      <c r="E133" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="21">
       <c r="A134" s="5" t="s">
         <v>96</v>
       </c>
@@ -3407,10 +3431,13 @@
         <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D134" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21">
       <c r="A135" s="5" t="s">
         <v>96</v>
       </c>
@@ -3418,10 +3445,10 @@
         <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="21">
       <c r="A136" s="5" t="s">
         <v>96</v>
       </c>
@@ -3429,14 +3456,17 @@
         <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="21">
+        <v>475</v>
+      </c>
+      <c r="D136" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="21">
       <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" spans="1:5" ht="21">
       <c r="A139" s="8" t="s">
         <v>133</v>
       </c>
@@ -3444,10 +3474,10 @@
         <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21">
       <c r="A140" s="8" t="s">
         <v>133</v>
       </c>
@@ -3455,10 +3485,10 @@
         <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="21">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21">
       <c r="A141" s="8" t="s">
         <v>133</v>
       </c>
@@ -3466,10 +3496,10 @@
         <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21">
       <c r="A142" s="8" t="s">
         <v>133</v>
       </c>
@@ -3477,10 +3507,13 @@
         <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D142" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21">
       <c r="A143" s="8" t="s">
         <v>133</v>
       </c>
@@ -3488,10 +3521,10 @@
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="21">
       <c r="A144" s="8" t="s">
         <v>133</v>
       </c>
@@ -3499,10 +3532,10 @@
         <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="21">
       <c r="A145" s="8" t="s">
         <v>133</v>
       </c>
@@ -3510,10 +3543,10 @@
         <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="21">
       <c r="A146" s="8" t="s">
         <v>133</v>
       </c>
@@ -3521,10 +3554,10 @@
         <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="21">
       <c r="A147" s="8" t="s">
         <v>133</v>
       </c>
@@ -3532,10 +3565,10 @@
         <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="21">
       <c r="A148" s="8" t="s">
         <v>133</v>
       </c>
@@ -3543,10 +3576,10 @@
         <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="21">
       <c r="A149" s="8" t="s">
         <v>133</v>
       </c>
@@ -3554,10 +3587,10 @@
         <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="21">
       <c r="A150" s="8" t="s">
         <v>133</v>
       </c>
@@ -3565,10 +3598,10 @@
         <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="21">
       <c r="A151" s="8" t="s">
         <v>133</v>
       </c>
@@ -3576,10 +3609,13 @@
         <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+      <c r="D151" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="21">
       <c r="A152" s="8" t="s">
         <v>133</v>
       </c>
@@ -3587,10 +3623,13 @@
         <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+      <c r="D152" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="21">
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
@@ -3598,10 +3637,10 @@
         <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="21">
       <c r="A154" s="8" t="s">
         <v>133</v>
       </c>
@@ -3609,10 +3648,10 @@
         <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="21">
       <c r="A155" s="8" t="s">
         <v>133</v>
       </c>
@@ -3620,10 +3659,10 @@
         <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="21">
       <c r="A156" s="8" t="s">
         <v>133</v>
       </c>
@@ -3631,10 +3670,10 @@
         <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="21">
       <c r="A157" s="8" t="s">
         <v>133</v>
       </c>
@@ -3642,10 +3681,13 @@
         <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D157" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="21">
       <c r="A158" s="8" t="s">
         <v>133</v>
       </c>
@@ -3653,10 +3695,10 @@
         <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="21">
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
@@ -3664,10 +3706,10 @@
         <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="21">
       <c r="A160" s="8" t="s">
         <v>133</v>
       </c>
@@ -3675,7 +3717,7 @@
         <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>4</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2929A-2D2E-408A-B8A9-19F14349E13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B509BE-9EF4-4F55-BB21-6722C3810B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,13 +1465,19 @@
   </si>
   <si>
     <t>Re-TRY</t>
+  </si>
+  <si>
+    <t>Not Possible in singly LL</t>
+  </si>
+  <si>
+    <t>??????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1533,6 +1539,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1555,7 +1577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1579,6 +1601,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1905,7 +1929,7 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25">
@@ -3720,7 +3744,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" spans="1:4" ht="21">
       <c r="A161" s="8" t="s">
         <v>133</v>
       </c>
@@ -3728,10 +3752,13 @@
         <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D161" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="21">
       <c r="A162" s="8" t="s">
         <v>133</v>
       </c>
@@ -3739,10 +3766,10 @@
         <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="21">
       <c r="A163" s="8" t="s">
         <v>133</v>
       </c>
@@ -3750,32 +3777,38 @@
         <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D163" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="19.5">
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D164" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="19.5">
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="21">
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
@@ -3783,10 +3816,10 @@
         <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="21">
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
@@ -3794,10 +3827,10 @@
         <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="21">
       <c r="A168" s="8" t="s">
         <v>133</v>
       </c>
@@ -3805,10 +3838,10 @@
         <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="21">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="21">
       <c r="A169" s="8" t="s">
         <v>133</v>
       </c>
@@ -3816,10 +3849,10 @@
         <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="21">
       <c r="A170" s="8" t="s">
         <v>133</v>
       </c>
@@ -3827,10 +3860,10 @@
         <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="21">
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
@@ -3838,10 +3871,10 @@
         <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="21">
       <c r="A172" s="8" t="s">
         <v>133</v>
       </c>
@@ -3849,10 +3882,10 @@
         <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="21">
       <c r="A173" s="8" t="s">
         <v>133</v>
       </c>
@@ -3860,10 +3893,10 @@
         <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="21">
       <c r="A174" s="8" t="s">
         <v>133</v>
       </c>
@@ -3874,7 +3907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" spans="1:4" ht="21">
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
@@ -7558,7 +7591,10 @@
     <hyperlink ref="B356" r:id="rId444" xr:uid="{A48B1A24-83B1-7A4C-8129-CD37804DF849}"/>
     <hyperlink ref="B2" r:id="rId445" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
     <hyperlink ref="B21" r:id="rId446" xr:uid="{7D991EC5-D672-43E5-B55D-6188A0212954}"/>
+    <hyperlink ref="B164" r:id="rId447" xr:uid="{3A631B99-EEAF-4F57-AA48-76EC457760F2}"/>
+    <hyperlink ref="B165" r:id="rId448" xr:uid="{89389856-9063-4B13-BE97-A3C22734FE4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId449"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B509BE-9EF4-4F55-BB21-6722C3810B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73867E-7F41-4BBB-8232-06DC7A167307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1471,6 +1471,12 @@
   </si>
   <si>
     <t>??????</t>
+  </si>
+  <si>
+    <t>Imp</t>
+  </si>
+  <si>
+    <t>Re-try</t>
   </si>
 </sst>
 </file>
@@ -1920,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3911,7 +3917,7 @@
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" spans="1:4" ht="21">
       <c r="A177" s="5" t="s">
         <v>170</v>
       </c>
@@ -3919,10 +3925,10 @@
         <v>171</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="21">
       <c r="A178" s="5" t="s">
         <v>170</v>
       </c>
@@ -3930,10 +3936,10 @@
         <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="21">
       <c r="A179" s="5" t="s">
         <v>170</v>
       </c>
@@ -3941,10 +3947,10 @@
         <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="21">
       <c r="A180" s="5" t="s">
         <v>170</v>
       </c>
@@ -3952,10 +3958,13 @@
         <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D180" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="21">
       <c r="A181" s="5" t="s">
         <v>170</v>
       </c>
@@ -3963,10 +3972,10 @@
         <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="21">
       <c r="A182" s="5" t="s">
         <v>170</v>
       </c>
@@ -3974,10 +3983,13 @@
         <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D182" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="21">
       <c r="A183" s="5" t="s">
         <v>170</v>
       </c>
@@ -3985,10 +3997,13 @@
         <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D183" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="21">
       <c r="A184" s="5" t="s">
         <v>170</v>
       </c>
@@ -3996,10 +4011,13 @@
         <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D184" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="21">
       <c r="A185" s="5" t="s">
         <v>170</v>
       </c>
@@ -4007,10 +4025,10 @@
         <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="21">
       <c r="A186" s="5" t="s">
         <v>170</v>
       </c>
@@ -4018,10 +4036,10 @@
         <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="21">
       <c r="A187" s="5" t="s">
         <v>170</v>
       </c>
@@ -4029,10 +4047,13 @@
         <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D187" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="21">
       <c r="A188" s="5" t="s">
         <v>170</v>
       </c>
@@ -4040,10 +4061,10 @@
         <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="21">
       <c r="A189" s="5" t="s">
         <v>170</v>
       </c>
@@ -4051,10 +4072,10 @@
         <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="21">
       <c r="A190" s="5" t="s">
         <v>170</v>
       </c>
@@ -4062,10 +4083,13 @@
         <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D190" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="21">
       <c r="A191" s="5" t="s">
         <v>170</v>
       </c>
@@ -4073,10 +4097,13 @@
         <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+      <c r="D191" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="21">
       <c r="A192" s="5" t="s">
         <v>170</v>
       </c>
@@ -4084,10 +4111,10 @@
         <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="21">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="21">
       <c r="A193" s="5" t="s">
         <v>170</v>
       </c>
@@ -4095,10 +4122,10 @@
         <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="21">
       <c r="A194" s="5" t="s">
         <v>170</v>
       </c>
@@ -4106,10 +4133,13 @@
         <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+      <c r="D194" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="21">
       <c r="A195" s="5" t="s">
         <v>170</v>
       </c>
@@ -4120,7 +4150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" spans="1:4" ht="21">
       <c r="A196" s="5" t="s">
         <v>170</v>
       </c>
@@ -4131,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" spans="1:4" ht="21">
       <c r="A197" s="5" t="s">
         <v>170</v>
       </c>
@@ -4142,7 +4172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" spans="1:4" ht="21">
       <c r="A198" s="5" t="s">
         <v>170</v>
       </c>
@@ -4150,10 +4180,10 @@
         <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="21">
       <c r="A199" s="5" t="s">
         <v>170</v>
       </c>
@@ -4161,10 +4191,10 @@
         <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="21">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="21">
       <c r="A200" s="5" t="s">
         <v>170</v>
       </c>
@@ -4175,7 +4205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" spans="1:4" ht="21">
       <c r="A201" s="5" t="s">
         <v>170</v>
       </c>
@@ -4186,7 +4216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" spans="1:4" ht="21">
       <c r="A202" s="5" t="s">
         <v>170</v>
       </c>
@@ -4197,7 +4227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" spans="1:4" ht="21">
       <c r="A203" s="5" t="s">
         <v>170</v>
       </c>
@@ -4208,7 +4238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" spans="1:4" ht="21">
       <c r="A204" s="5" t="s">
         <v>170</v>
       </c>
@@ -4219,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" spans="1:4" ht="21">
       <c r="A205" s="5" t="s">
         <v>170</v>
       </c>
@@ -4230,7 +4260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" spans="1:4" ht="21">
       <c r="A206" s="5" t="s">
         <v>170</v>
       </c>
@@ -4241,7 +4271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" spans="1:4" ht="21">
       <c r="A207" s="5" t="s">
         <v>170</v>
       </c>
@@ -4252,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" spans="1:4" ht="21">
       <c r="A208" s="5" t="s">
         <v>170</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C73867E-7F41-4BBB-8232-06DC7A167307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2CB2DD-A2B5-4981-A7AE-2CEBE37BD088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -654,9 +654,6 @@
     <t>Binary Search Trees</t>
   </si>
   <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
     <t>Deletion of a node in a BST</t>
   </si>
   <si>
@@ -1477,6 +1474,15 @@
   </si>
   <si>
     <t>Re-try</t>
+  </si>
+  <si>
+    <t>Find a value in a BST</t>
+  </si>
+  <si>
+    <t>Revise, DP</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1933,7 @@
   <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1945,7 +1951,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -1972,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -1983,7 +1989,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -1994,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -2005,7 +2011,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2016,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2027,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2038,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2049,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2060,10 +2066,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D14" t="s">
         <v>464</v>
-      </c>
-      <c r="D14" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2074,7 +2080,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
@@ -2085,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21">
@@ -2096,10 +2102,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" t="s">
         <v>464</v>
-      </c>
-      <c r="D17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21">
@@ -2110,7 +2116,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="21">
@@ -2121,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="21">
@@ -2132,7 +2138,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="21">
@@ -2143,7 +2149,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="21">
@@ -2154,7 +2160,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2165,7 +2171,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21">
@@ -2176,10 +2182,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D24" t="s">
         <v>464</v>
-      </c>
-      <c r="D24" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21">
@@ -2190,10 +2196,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" t="s">
         <v>464</v>
-      </c>
-      <c r="D25" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="21">
@@ -2204,10 +2210,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21">
@@ -2218,10 +2224,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D27" t="s">
         <v>464</v>
-      </c>
-      <c r="D27" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21">
@@ -2232,10 +2238,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D28" t="s">
         <v>464</v>
-      </c>
-      <c r="D28" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="21">
@@ -2246,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="21">
@@ -2257,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="21">
@@ -2268,10 +2274,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
@@ -2282,7 +2288,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="21">
@@ -2293,7 +2299,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="21">
@@ -2304,10 +2310,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" t="s">
         <v>464</v>
-      </c>
-      <c r="D34" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="21">
@@ -2318,7 +2324,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21">
@@ -2329,7 +2335,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="21">
@@ -2340,10 +2346,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="21">
@@ -2354,10 +2360,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" t="s">
         <v>464</v>
-      </c>
-      <c r="D38" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="21">
@@ -2368,7 +2374,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="21">
@@ -2379,7 +2385,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="21">
@@ -2390,7 +2396,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="21">
@@ -2414,7 +2420,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="21">
@@ -2425,7 +2431,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="21">
@@ -2436,7 +2442,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="21">
@@ -2447,7 +2453,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="21">
@@ -2458,7 +2464,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="21">
@@ -2469,10 +2475,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D49" t="s">
         <v>464</v>
-      </c>
-      <c r="D49" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="21">
@@ -2483,10 +2489,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" t="s">
         <v>464</v>
-      </c>
-      <c r="D50" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21">
@@ -2497,7 +2503,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="21">
@@ -2508,10 +2514,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D52" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="21">
@@ -2522,7 +2528,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="21">
@@ -2538,7 +2544,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="21">
@@ -2549,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="21">
@@ -2560,10 +2566,10 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" t="s">
         <v>464</v>
-      </c>
-      <c r="D58" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="21">
@@ -2574,7 +2580,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="21">
@@ -2585,7 +2591,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="21">
@@ -2596,7 +2602,7 @@
         <v>58</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="21">
@@ -2607,10 +2613,10 @@
         <v>59</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="21">
@@ -2621,7 +2627,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="21">
@@ -2632,10 +2638,10 @@
         <v>61</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D64" t="s">
         <v>464</v>
-      </c>
-      <c r="D64" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="21">
@@ -2646,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="21">
@@ -2657,7 +2663,7 @@
         <v>63</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="21">
@@ -2668,7 +2674,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="21">
@@ -2679,10 +2685,10 @@
         <v>65</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D68" t="s">
         <v>464</v>
-      </c>
-      <c r="D68" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="21">
@@ -2693,10 +2699,10 @@
         <v>66</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D69" t="s">
         <v>464</v>
-      </c>
-      <c r="D69" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="21">
@@ -2707,7 +2713,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="21">
@@ -2718,7 +2724,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="21">
@@ -2729,10 +2735,10 @@
         <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D72" t="s">
         <v>464</v>
-      </c>
-      <c r="D72" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="21">
@@ -2743,7 +2749,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="21">
@@ -2754,7 +2760,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="21">
@@ -2765,7 +2771,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="21">
@@ -2776,7 +2782,7 @@
         <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="21">
@@ -2790,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="21">
@@ -2804,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="21">
@@ -2818,7 +2824,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="21">
@@ -2829,10 +2835,10 @@
         <v>77</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D80" t="s">
         <v>464</v>
-      </c>
-      <c r="D80" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="21">
@@ -2843,7 +2849,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="21">
@@ -2854,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="21">
@@ -2865,7 +2871,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="21">
@@ -2876,7 +2882,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="21">
@@ -2887,7 +2893,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="21">
@@ -2898,10 +2904,10 @@
         <v>83</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86" t="s">
         <v>464</v>
-      </c>
-      <c r="D86" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="21">
@@ -2912,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="21">
@@ -2923,7 +2929,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="21">
@@ -2934,7 +2940,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="21">
@@ -2945,10 +2951,10 @@
         <v>87</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D90" t="s">
         <v>464</v>
-      </c>
-      <c r="D90" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="21">
@@ -2959,10 +2965,10 @@
         <v>88</v>
       </c>
       <c r="C91" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D91" t="s">
         <v>464</v>
-      </c>
-      <c r="D91" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="21">
@@ -2973,7 +2979,7 @@
         <v>89</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="21">
@@ -2984,7 +2990,7 @@
         <v>90</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="21">
@@ -2995,7 +3001,7 @@
         <v>91</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="21">
@@ -3006,7 +3012,7 @@
         <v>92</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="21">
@@ -3017,10 +3023,10 @@
         <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D96" t="s">
         <v>464</v>
-      </c>
-      <c r="D96" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="21">
@@ -3031,10 +3037,10 @@
         <v>94</v>
       </c>
       <c r="C97" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D97" t="s">
         <v>464</v>
-      </c>
-      <c r="D97" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="21">
@@ -3045,10 +3051,10 @@
         <v>95</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D98" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="21">
@@ -3064,7 +3070,7 @@
         <v>97</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="21">
@@ -3075,7 +3081,7 @@
         <v>98</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="21">
@@ -3086,10 +3092,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D103" t="s">
         <v>464</v>
-      </c>
-      <c r="D103" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="21">
@@ -3100,7 +3106,7 @@
         <v>100</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="21">
@@ -3111,7 +3117,7 @@
         <v>101</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="21">
@@ -3122,10 +3128,10 @@
         <v>102</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D106" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="21">
@@ -3136,7 +3142,7 @@
         <v>103</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="21">
@@ -3148,7 +3154,7 @@
       </c>
       <c r="C108" s="4"/>
       <c r="D108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="21">
@@ -3159,7 +3165,7 @@
         <v>105</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="21">
@@ -3170,7 +3176,7 @@
         <v>106</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="21">
@@ -3181,7 +3187,7 @@
         <v>107</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="21">
@@ -3192,7 +3198,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="21">
@@ -3203,7 +3209,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="21">
@@ -3214,10 +3220,10 @@
         <v>110</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D114" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="21">
@@ -3228,10 +3234,10 @@
         <v>111</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D115" t="s">
         <v>464</v>
-      </c>
-      <c r="D115" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="21">
@@ -3242,7 +3248,7 @@
         <v>112</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="21">
@@ -3253,7 +3259,7 @@
         <v>113</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="21">
@@ -3264,10 +3270,10 @@
         <v>114</v>
       </c>
       <c r="C118" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D118" t="s">
         <v>464</v>
-      </c>
-      <c r="D118" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="21">
@@ -3278,7 +3284,7 @@
         <v>115</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="21">
@@ -3300,7 +3306,7 @@
         <v>117</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="21">
@@ -3311,7 +3317,7 @@
         <v>118</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="21">
@@ -3322,7 +3328,7 @@
         <v>119</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="21">
@@ -3333,10 +3339,10 @@
         <v>120</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D124" t="s">
         <v>464</v>
-      </c>
-      <c r="D124" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="21">
@@ -3347,10 +3353,10 @@
         <v>121</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D125" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="21">
@@ -3361,7 +3367,7 @@
         <v>122</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="21">
@@ -3372,10 +3378,10 @@
         <v>123</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D127" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="21">
@@ -3386,7 +3392,7 @@
         <v>124</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="21">
@@ -3397,10 +3403,10 @@
         <v>125</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D129" t="s">
         <v>464</v>
-      </c>
-      <c r="D129" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="21">
@@ -3433,7 +3439,7 @@
         <v>128</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="21">
@@ -3444,13 +3450,13 @@
         <v>129</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E133" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="21">
@@ -3461,10 +3467,10 @@
         <v>130</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="21">
@@ -3475,7 +3481,7 @@
         <v>131</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="21">
@@ -3486,10 +3492,10 @@
         <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D136" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="21">
@@ -3504,7 +3510,7 @@
         <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="21">
@@ -3515,7 +3521,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="21">
@@ -3526,7 +3532,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="21">
@@ -3537,10 +3543,10 @@
         <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21">
@@ -3551,7 +3557,7 @@
         <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="21">
@@ -3562,7 +3568,7 @@
         <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="21">
@@ -3573,7 +3579,7 @@
         <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="21">
@@ -3584,7 +3590,7 @@
         <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="21">
@@ -3595,7 +3601,7 @@
         <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="21">
@@ -3606,7 +3612,7 @@
         <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="21">
@@ -3617,7 +3623,7 @@
         <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="21">
@@ -3628,7 +3634,7 @@
         <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="21">
@@ -3639,10 +3645,10 @@
         <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D151" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="21">
@@ -3653,10 +3659,10 @@
         <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D152" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="21">
@@ -3667,7 +3673,7 @@
         <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="21">
@@ -3678,7 +3684,7 @@
         <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="21">
@@ -3689,7 +3695,7 @@
         <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="21">
@@ -3700,7 +3706,7 @@
         <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="21">
@@ -3711,10 +3717,10 @@
         <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D157" t="s">
         <v>464</v>
-      </c>
-      <c r="D157" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="21">
@@ -3725,7 +3731,7 @@
         <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="21">
@@ -3736,7 +3742,7 @@
         <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="21">
@@ -3747,7 +3753,7 @@
         <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="21">
@@ -3758,10 +3764,10 @@
         <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D161" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="21">
@@ -3772,7 +3778,7 @@
         <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="21">
@@ -3783,10 +3789,10 @@
         <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D163" t="s">
         <v>464</v>
-      </c>
-      <c r="D163" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="19.5">
@@ -3797,10 +3803,10 @@
         <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D164" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="19.5">
@@ -3811,7 +3817,7 @@
         <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="21">
@@ -3822,7 +3828,7 @@
         <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="21">
@@ -3833,7 +3839,7 @@
         <v>162</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="21">
@@ -3844,7 +3850,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="21">
@@ -3855,7 +3861,7 @@
         <v>164</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="21">
@@ -3866,7 +3872,7 @@
         <v>165</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="21">
@@ -3877,7 +3883,7 @@
         <v>166</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="21">
@@ -3888,7 +3894,7 @@
         <v>167</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="21">
@@ -3899,7 +3905,7 @@
         <v>168</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="21">
@@ -3925,7 +3931,7 @@
         <v>171</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="21">
@@ -3936,7 +3942,7 @@
         <v>172</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="21">
@@ -3947,7 +3953,7 @@
         <v>173</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="21">
@@ -3958,10 +3964,10 @@
         <v>174</v>
       </c>
       <c r="C180" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D180" t="s">
         <v>464</v>
-      </c>
-      <c r="D180" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="21">
@@ -3972,7 +3978,7 @@
         <v>175</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="21">
@@ -3983,10 +3989,10 @@
         <v>176</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D182" t="s">
         <v>464</v>
-      </c>
-      <c r="D182" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="21">
@@ -3997,10 +4003,10 @@
         <v>177</v>
       </c>
       <c r="C183" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D183" t="s">
         <v>464</v>
-      </c>
-      <c r="D183" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="21">
@@ -4011,10 +4017,10 @@
         <v>178</v>
       </c>
       <c r="C184" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D184" t="s">
         <v>464</v>
-      </c>
-      <c r="D184" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="21">
@@ -4025,7 +4031,7 @@
         <v>179</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="21">
@@ -4036,7 +4042,7 @@
         <v>180</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="21">
@@ -4047,10 +4053,10 @@
         <v>181</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D187" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="21">
@@ -4061,7 +4067,7 @@
         <v>182</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="21">
@@ -4072,7 +4078,7 @@
         <v>183</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="21">
@@ -4083,10 +4089,10 @@
         <v>184</v>
       </c>
       <c r="C190" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D190" t="s">
         <v>464</v>
-      </c>
-      <c r="D190" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="21">
@@ -4097,10 +4103,10 @@
         <v>185</v>
       </c>
       <c r="C191" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D191" t="s">
         <v>464</v>
-      </c>
-      <c r="D191" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="21">
@@ -4111,7 +4117,7 @@
         <v>186</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="21">
@@ -4122,7 +4128,7 @@
         <v>187</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="21">
@@ -4133,10 +4139,10 @@
         <v>188</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D194" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="21">
@@ -4147,7 +4153,7 @@
         <v>189</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="21">
@@ -4158,7 +4164,10 @@
         <v>190</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D196" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="21">
@@ -4169,7 +4178,7 @@
         <v>191</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="21">
@@ -4180,7 +4189,10 @@
         <v>192</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
+      </c>
+      <c r="D198" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="21">
@@ -4191,7 +4203,7 @@
         <v>193</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="21">
@@ -4202,7 +4214,10 @@
         <v>194</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
+      </c>
+      <c r="D200" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="21">
@@ -4213,7 +4228,10 @@
         <v>195</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D201" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="21">
@@ -4224,7 +4242,10 @@
         <v>196</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D202" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="21">
@@ -4235,7 +4256,10 @@
         <v>197</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D203" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="21">
@@ -4246,7 +4270,7 @@
         <v>198</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="21">
@@ -4257,7 +4281,10 @@
         <v>199</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
+      </c>
+      <c r="D205" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="21">
@@ -4268,7 +4295,10 @@
         <v>200</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D206" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="21">
@@ -4279,7 +4309,10 @@
         <v>201</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D207" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="21">
@@ -4290,10 +4323,10 @@
         <v>202</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="21">
       <c r="A209" s="5" t="s">
         <v>170</v>
       </c>
@@ -4301,10 +4334,13 @@
         <v>203</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="21">
       <c r="A210" s="5" t="s">
         <v>170</v>
       </c>
@@ -4312,10 +4348,10 @@
         <v>204</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="21">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="21">
       <c r="A211" s="5" t="s">
         <v>170</v>
       </c>
@@ -4323,135 +4359,135 @@
         <v>205</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="21">
       <c r="A212" s="8"/>
       <c r="B212" s="7"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" spans="1:4" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" spans="1:4" ht="21">
       <c r="A214" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>207</v>
+        <v>481</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" spans="1:4" ht="21">
       <c r="A215" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" spans="1:4" ht="21">
       <c r="A216" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" spans="1:4" ht="21">
       <c r="A217" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" spans="1:4" ht="21">
       <c r="A218" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" spans="1:4" ht="21">
       <c r="A219" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" spans="1:4" ht="21">
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" spans="1:4" ht="21">
       <c r="A221" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" spans="1:4" ht="21">
       <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" spans="1:4" ht="21">
       <c r="A223" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" spans="1:4" ht="21">
       <c r="A224" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4462,7 +4498,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4473,7 +4509,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4484,7 +4520,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4495,7 +4531,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4506,7 +4542,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4517,7 +4553,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4528,7 +4564,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4539,7 +4575,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4550,7 +4586,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4561,7 +4597,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4572,7 +4608,7 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4588,10 +4624,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B238" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4599,10 +4635,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4610,10 +4646,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4621,10 +4657,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4632,10 +4668,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4643,10 +4679,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4654,10 +4690,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4665,10 +4701,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4676,10 +4712,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4687,10 +4723,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4698,10 +4734,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4709,10 +4745,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4720,10 +4756,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4731,10 +4767,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4742,10 +4778,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4753,10 +4789,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4764,10 +4800,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4775,10 +4811,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4786,10 +4822,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4797,10 +4833,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4808,10 +4844,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4819,10 +4855,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4830,10 +4866,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4841,10 +4877,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4852,10 +4888,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4863,10 +4899,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4874,10 +4910,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4885,10 +4921,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4896,10 +4932,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4907,10 +4943,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4918,10 +4954,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4929,10 +4965,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4940,10 +4976,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4951,7 +4987,7 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>86</v>
@@ -4962,10 +4998,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4981,10 +5017,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4992,10 +5028,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -5003,10 +5039,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -5014,10 +5050,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -5025,10 +5061,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -5036,10 +5072,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -5047,10 +5083,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -5058,10 +5094,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -5069,10 +5105,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -5080,10 +5116,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -5091,10 +5127,10 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
@@ -5102,10 +5138,10 @@
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>4</v>
@@ -5113,10 +5149,10 @@
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -5124,10 +5160,10 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>4</v>
@@ -5135,10 +5171,10 @@
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -5146,10 +5182,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -5157,10 +5193,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -5168,10 +5204,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -5179,10 +5215,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -5198,10 +5234,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B296" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -5209,10 +5245,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -5220,10 +5256,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -5231,10 +5267,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -5242,10 +5278,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5253,10 +5289,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5264,10 +5300,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5275,10 +5311,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5286,10 +5322,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5297,10 +5333,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5308,10 +5344,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5319,10 +5355,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5330,10 +5366,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5341,10 +5377,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5352,10 +5388,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5363,10 +5399,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5374,10 +5410,10 @@
     </row>
     <row r="312" spans="1:3" ht="21">
       <c r="A312" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5385,10 +5421,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5396,10 +5432,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5407,10 +5443,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5418,10 +5454,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5429,10 +5465,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5440,10 +5476,10 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>4</v>
@@ -5451,10 +5487,10 @@
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5462,10 +5498,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5473,10 +5509,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5484,10 +5520,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5495,10 +5531,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5506,10 +5542,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5517,10 +5553,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5528,10 +5564,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5539,10 +5575,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5550,10 +5586,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5561,10 +5597,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5572,10 +5608,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5583,10 +5619,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5594,10 +5630,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5605,10 +5641,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5624,10 +5660,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B336" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5635,10 +5671,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5646,10 +5682,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5657,10 +5693,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5668,10 +5704,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5679,10 +5715,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5690,10 +5726,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5701,10 +5737,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5712,10 +5748,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5723,10 +5759,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5734,10 +5770,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5745,10 +5781,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5756,10 +5792,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5767,10 +5803,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5778,10 +5814,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5789,10 +5825,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5800,10 +5836,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5811,10 +5847,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5830,10 +5866,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B356" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5841,10 +5877,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5852,10 +5888,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5863,10 +5899,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5874,10 +5910,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5885,10 +5921,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5896,10 +5932,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5907,10 +5943,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5918,10 +5954,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5929,10 +5965,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5940,10 +5976,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5951,10 +5987,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5962,10 +5998,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5973,10 +6009,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5984,10 +6020,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5995,10 +6031,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -6006,10 +6042,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -6017,10 +6053,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -6028,10 +6064,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -6039,10 +6075,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -6050,10 +6086,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -6061,10 +6097,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -6072,10 +6108,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -6083,10 +6119,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -6094,10 +6130,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -6105,10 +6141,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -6116,10 +6152,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -6127,10 +6163,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -6138,10 +6174,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -6149,10 +6185,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -6160,10 +6196,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -6171,10 +6207,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -6182,10 +6218,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -6193,10 +6229,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -6204,10 +6240,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -6215,10 +6251,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -6226,10 +6262,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -6237,10 +6273,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6248,10 +6284,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6259,10 +6295,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6270,10 +6306,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6281,10 +6317,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6292,10 +6328,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6303,10 +6339,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6322,10 +6358,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B402" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6333,10 +6369,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6344,10 +6380,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6355,7 +6391,7 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>88</v>
@@ -6366,10 +6402,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6377,10 +6413,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6396,10 +6432,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6407,10 +6443,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6418,10 +6454,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6429,10 +6465,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6440,10 +6476,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6451,10 +6487,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6462,10 +6498,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6473,10 +6509,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6484,10 +6520,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6495,10 +6531,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6506,10 +6542,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6517,10 +6553,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6528,10 +6564,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6539,10 +6575,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6550,10 +6586,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6561,10 +6597,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6572,10 +6608,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6583,10 +6619,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6594,10 +6630,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6605,10 +6641,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6616,10 +6652,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6627,10 +6663,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6638,10 +6674,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6649,10 +6685,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6660,10 +6696,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6671,10 +6707,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6682,10 +6718,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6693,10 +6729,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6704,10 +6740,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6715,10 +6751,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6726,10 +6762,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6737,10 +6773,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6748,10 +6784,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6759,10 +6795,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6770,10 +6806,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6781,10 +6817,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6792,10 +6828,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6803,10 +6839,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6814,10 +6850,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6825,10 +6861,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6836,10 +6872,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6847,10 +6883,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6858,10 +6894,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6869,10 +6905,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6880,10 +6916,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6891,10 +6927,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6902,10 +6938,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6913,10 +6949,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6924,10 +6960,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6935,10 +6971,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6946,10 +6982,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6957,10 +6993,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6968,10 +7004,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6979,10 +7015,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6990,10 +7026,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -7001,10 +7037,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -7012,10 +7048,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -7023,10 +7059,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -7034,10 +7070,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -7045,10 +7081,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -7065,10 +7101,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B472" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -7076,10 +7112,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -7087,10 +7123,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -7098,10 +7134,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -7109,10 +7145,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -7120,10 +7156,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -7131,10 +7167,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -7142,10 +7178,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -7153,10 +7189,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -7164,10 +7200,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -7367,7 +7403,7 @@
     <hyperlink ref="B209" r:id="rId190" xr:uid="{DDEEED0F-A939-1E4F-B2FA-AD391A4A2874}"/>
     <hyperlink ref="B210" r:id="rId191" xr:uid="{C2F20589-AD81-654C-94E5-E5B6C9FE27F6}"/>
     <hyperlink ref="B211" r:id="rId192" xr:uid="{BBEB9DAC-E4AE-C04F-AA15-6356AFC57FDE}"/>
-    <hyperlink ref="B214" r:id="rId193" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
+    <hyperlink ref="B214" r:id="rId193" display="Fina a value in a BST" xr:uid="{6316566D-A10A-F849-9F25-B9ED4DA12BC7}"/>
     <hyperlink ref="B215" r:id="rId194" xr:uid="{9D4DD895-FBA6-C849-A5BF-3B30755BD9C9}"/>
     <hyperlink ref="B216" r:id="rId195" xr:uid="{475996DA-632A-BE49-AEA1-D4189FD614A1}"/>
     <hyperlink ref="B217" r:id="rId196" xr:uid="{88E0C858-8468-884F-BB71-F6F176BD5FC2}"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2CB2DD-A2B5-4981-A7AE-2CEBE37BD088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E16B0-E810-4D3C-AF82-491CA5074980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4380,7 +4380,7 @@
         <v>481</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="21">
@@ -4391,7 +4391,10 @@
         <v>207</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D215" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="21">
@@ -4402,7 +4405,7 @@
         <v>208</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="21">
@@ -4413,7 +4416,7 @@
         <v>209</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="21">
@@ -4424,7 +4427,10 @@
         <v>210</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D218" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6E16B0-E810-4D3C-AF82-491CA5074980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0854D-9434-441F-8EF1-EC3866BC4780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4441,7 +4441,7 @@
         <v>211</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="21">
@@ -4452,7 +4452,7 @@
         <v>212</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="21">
@@ -4463,7 +4463,10 @@
         <v>213</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D221" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="21">
@@ -4474,7 +4477,7 @@
         <v>214</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="21">
@@ -4485,7 +4488,7 @@
         <v>215</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="21">
@@ -4496,7 +4499,10 @@
         <v>216</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D224" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
@@ -4507,7 +4513,7 @@
         <v>217</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4518,7 +4524,7 @@
         <v>218</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4529,7 +4535,7 @@
         <v>219</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F0854D-9434-441F-8EF1-EC3866BC4780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3706B79-C73C-49E2-A7D7-6B5E27284450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="484">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1932,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C227" sqref="C227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4505,7 +4505,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" spans="1:4" ht="21">
       <c r="A225" s="5" t="s">
         <v>206</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" spans="1:4" ht="21">
       <c r="A226" s="5" t="s">
         <v>206</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" spans="1:4" ht="21">
       <c r="A227" s="5" t="s">
         <v>206</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" spans="1:4" ht="21">
       <c r="A228" s="5" t="s">
         <v>206</v>
       </c>
@@ -4546,10 +4546,13 @@
         <v>220</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D228" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="21">
       <c r="A229" s="5" t="s">
         <v>206</v>
       </c>
@@ -4557,10 +4560,10 @@
         <v>221</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="21">
       <c r="A230" s="5" t="s">
         <v>206</v>
       </c>
@@ -4568,10 +4571,13 @@
         <v>222</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D230" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="21">
       <c r="A231" s="5" t="s">
         <v>206</v>
       </c>
@@ -4579,10 +4585,10 @@
         <v>223</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="21">
       <c r="A232" s="5" t="s">
         <v>206</v>
       </c>
@@ -4590,10 +4596,13 @@
         <v>224</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D232" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="21">
       <c r="A233" s="5" t="s">
         <v>206</v>
       </c>
@@ -4601,10 +4610,10 @@
         <v>225</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="21">
       <c r="A234" s="5" t="s">
         <v>206</v>
       </c>
@@ -4612,10 +4621,13 @@
         <v>226</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D234" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="21">
       <c r="A235" s="5" t="s">
         <v>206</v>
       </c>
@@ -4623,18 +4635,21 @@
         <v>227</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D235" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="21">
       <c r="B236" s="7"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" spans="1:4" ht="21">
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" spans="1:4" ht="21">
       <c r="A238" s="5" t="s">
         <v>228</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" spans="1:4" ht="21">
       <c r="A239" s="5" t="s">
         <v>228</v>
       </c>
@@ -4656,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" spans="1:4" ht="21">
       <c r="A240" s="5" t="s">
         <v>228</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3706B79-C73C-49E2-A7D7-6B5E27284450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C009F44-6167-404D-AF27-4B912F90012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="485">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1483,6 +1483,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Retry</t>
   </si>
 </sst>
 </file>
@@ -1932,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C227" sqref="C227"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4657,7 +4660,7 @@
         <v>229</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="21">
@@ -4668,7 +4671,7 @@
         <v>230</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="21">
@@ -4679,10 +4682,13 @@
         <v>231</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="21">
+        <v>484</v>
+      </c>
+      <c r="D240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="21">
       <c r="A241" s="5" t="s">
         <v>228</v>
       </c>
@@ -4690,10 +4696,13 @@
         <v>232</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D241" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="21">
       <c r="A242" s="5" t="s">
         <v>228</v>
       </c>
@@ -4701,10 +4710,10 @@
         <v>233</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="21">
       <c r="A243" s="5" t="s">
         <v>228</v>
       </c>
@@ -4712,10 +4721,10 @@
         <v>234</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="21">
       <c r="A244" s="5" t="s">
         <v>228</v>
       </c>
@@ -4723,10 +4732,10 @@
         <v>235</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="21">
       <c r="A245" s="5" t="s">
         <v>228</v>
       </c>
@@ -4734,10 +4743,13 @@
         <v>236</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D245" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="21">
       <c r="A246" s="5" t="s">
         <v>228</v>
       </c>
@@ -4745,10 +4757,10 @@
         <v>237</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="21">
       <c r="A247" s="5" t="s">
         <v>228</v>
       </c>
@@ -4756,10 +4768,10 @@
         <v>238</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="21">
       <c r="A248" s="5" t="s">
         <v>228</v>
       </c>
@@ -4767,10 +4779,13 @@
         <v>239</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D248" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="21">
       <c r="A249" s="5" t="s">
         <v>228</v>
       </c>
@@ -4778,10 +4793,10 @@
         <v>240</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="21">
       <c r="A250" s="5" t="s">
         <v>228</v>
       </c>
@@ -4789,10 +4804,10 @@
         <v>241</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="21">
       <c r="A251" s="5" t="s">
         <v>228</v>
       </c>
@@ -4800,10 +4815,10 @@
         <v>242</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="21">
       <c r="A252" s="5" t="s">
         <v>228</v>
       </c>
@@ -4811,10 +4826,10 @@
         <v>243</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="21">
       <c r="A253" s="5" t="s">
         <v>228</v>
       </c>
@@ -4822,10 +4837,10 @@
         <v>244</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="21">
       <c r="A254" s="5" t="s">
         <v>228</v>
       </c>
@@ -4833,10 +4848,10 @@
         <v>245</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="21">
       <c r="A255" s="5" t="s">
         <v>228</v>
       </c>
@@ -4844,10 +4859,10 @@
         <v>246</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="21">
       <c r="A256" s="5" t="s">
         <v>228</v>
       </c>
@@ -4855,7 +4870,7 @@
         <v>247</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="21">
@@ -4866,7 +4881,7 @@
         <v>248</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C009F44-6167-404D-AF27-4B912F90012B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11FC79-F00A-420A-A86C-BD9980EF8C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="486">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1486,6 +1486,9 @@
   </si>
   <si>
     <t>Retry</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fk1yIirivEohttps://www.youtube.com/watch?v=fk1yIirivEo</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4873,7 +4876,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" spans="1:5" ht="21">
       <c r="A257" s="5" t="s">
         <v>228</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" spans="1:5" ht="21">
       <c r="A258" s="5" t="s">
         <v>228</v>
       </c>
@@ -4892,10 +4895,10 @@
         <v>249</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="21">
       <c r="A259" s="5" t="s">
         <v>228</v>
       </c>
@@ -4903,10 +4906,13 @@
         <v>250</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D259" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="21">
       <c r="A260" s="5" t="s">
         <v>228</v>
       </c>
@@ -4914,10 +4920,10 @@
         <v>251</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="21">
       <c r="A261" s="5" t="s">
         <v>228</v>
       </c>
@@ -4925,10 +4931,10 @@
         <v>252</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="21">
       <c r="A262" s="5" t="s">
         <v>228</v>
       </c>
@@ -4936,10 +4942,16 @@
         <v>253</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D262" t="s">
+        <v>464</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="21">
       <c r="A263" s="5" t="s">
         <v>228</v>
       </c>
@@ -4947,10 +4959,10 @@
         <v>254</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="21">
       <c r="A264" s="5" t="s">
         <v>228</v>
       </c>
@@ -4958,10 +4970,10 @@
         <v>255</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="21">
       <c r="A265" s="5" t="s">
         <v>228</v>
       </c>
@@ -4969,10 +4981,10 @@
         <v>256</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="21">
       <c r="A266" s="5" t="s">
         <v>228</v>
       </c>
@@ -4980,10 +4992,10 @@
         <v>257</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="21">
       <c r="A267" s="5" t="s">
         <v>228</v>
       </c>
@@ -4991,10 +5003,10 @@
         <v>258</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="21">
       <c r="A268" s="5" t="s">
         <v>228</v>
       </c>
@@ -5002,10 +5014,13 @@
         <v>259</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D268" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="21">
       <c r="A269" s="5" t="s">
         <v>228</v>
       </c>
@@ -5013,10 +5028,10 @@
         <v>260</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="21">
       <c r="A270" s="5" t="s">
         <v>228</v>
       </c>
@@ -5024,10 +5039,13 @@
         <v>261</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D270" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="21">
       <c r="A271" s="5" t="s">
         <v>228</v>
       </c>
@@ -5035,10 +5053,10 @@
         <v>86</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="21">
       <c r="A272" s="5" t="s">
         <v>228</v>
       </c>
@@ -5046,7 +5064,7 @@
         <v>262</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="21">
@@ -7701,8 +7719,9 @@
     <hyperlink ref="B21" r:id="rId446" xr:uid="{7D991EC5-D672-43E5-B55D-6188A0212954}"/>
     <hyperlink ref="B164" r:id="rId447" xr:uid="{3A631B99-EEAF-4F57-AA48-76EC457760F2}"/>
     <hyperlink ref="B165" r:id="rId448" xr:uid="{89389856-9063-4B13-BE97-A3C22734FE4D}"/>
+    <hyperlink ref="E262" r:id="rId449" xr:uid="{C3658046-5DDA-41F9-8996-F377005A6E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId449"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId450"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D11FC79-F00A-420A-A86C-BD9980EF8C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D75304-D4FD-49C3-8485-ACAD4DC30C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1938,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C271" sqref="C271"/>
+    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7167,7 +7167,7 @@
         <v>452</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -7178,7 +7178,7 @@
         <v>453</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -7189,7 +7189,7 @@
         <v>454</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -7211,7 +7211,7 @@
         <v>456</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -7222,7 +7222,7 @@
         <v>457</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D75304-D4FD-49C3-8485-ACAD4DC30C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EDFD58-BBD2-4D5D-9376-86D27BFB9EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fk1yIirivEohttps://www.youtube.com/watch?v=fk1yIirivEo</t>
+  </si>
+  <si>
+    <t>Imp,Revise</t>
   </si>
 </sst>
 </file>
@@ -1938,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C478" sqref="C478"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5067,15 +5070,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" spans="1:4" ht="21">
       <c r="B273" s="7"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" spans="1:4" ht="21">
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" spans="1:4" ht="21">
       <c r="A275" s="5" t="s">
         <v>263</v>
       </c>
@@ -5083,10 +5086,10 @@
         <v>264</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="21">
       <c r="A276" s="5" t="s">
         <v>263</v>
       </c>
@@ -5094,10 +5097,13 @@
         <v>265</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D276" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="21">
       <c r="A277" s="5" t="s">
         <v>263</v>
       </c>
@@ -5105,10 +5111,10 @@
         <v>266</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="21">
       <c r="A278" s="5" t="s">
         <v>263</v>
       </c>
@@ -5116,10 +5122,10 @@
         <v>267</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="21">
       <c r="A279" s="5" t="s">
         <v>263</v>
       </c>
@@ -5127,10 +5133,10 @@
         <v>268</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="21">
       <c r="A280" s="5" t="s">
         <v>263</v>
       </c>
@@ -5138,10 +5144,13 @@
         <v>269</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D280" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="21">
       <c r="A281" s="5" t="s">
         <v>263</v>
       </c>
@@ -5149,10 +5158,13 @@
         <v>270</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D281" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="21">
       <c r="A282" s="5" t="s">
         <v>263</v>
       </c>
@@ -5160,10 +5172,10 @@
         <v>271</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="21">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="21">
       <c r="A283" s="5" t="s">
         <v>263</v>
       </c>
@@ -5171,10 +5183,10 @@
         <v>272</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="21">
       <c r="A284" s="5" t="s">
         <v>263</v>
       </c>
@@ -5182,10 +5194,13 @@
         <v>273</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D284" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="21">
       <c r="A285" s="5" t="s">
         <v>263</v>
       </c>
@@ -5193,10 +5208,13 @@
         <v>274</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D285" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="21">
       <c r="A286" s="5" t="s">
         <v>263</v>
       </c>
@@ -5204,10 +5222,10 @@
         <v>275</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="21">
       <c r="A287" s="5" t="s">
         <v>263</v>
       </c>
@@ -5215,10 +5233,10 @@
         <v>276</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="21">
       <c r="A288" s="5" t="s">
         <v>263</v>
       </c>
@@ -5226,10 +5244,13 @@
         <v>277</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D288" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="21">
       <c r="A289" s="5" t="s">
         <v>263</v>
       </c>
@@ -5237,10 +5258,13 @@
         <v>278</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D289" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="21">
       <c r="A290" s="5" t="s">
         <v>263</v>
       </c>
@@ -5248,10 +5272,10 @@
         <v>279</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="21">
       <c r="A291" s="5" t="s">
         <v>263</v>
       </c>
@@ -5259,10 +5283,10 @@
         <v>280</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="21">
       <c r="A292" s="5" t="s">
         <v>263</v>
       </c>
@@ -5270,10 +5294,13 @@
         <v>281</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+      <c r="D292" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="21">
       <c r="A293" s="5" t="s">
         <v>263</v>
       </c>
@@ -5281,18 +5308,21 @@
         <v>282</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D293" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="21">
       <c r="B294" s="7"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" spans="1:4" ht="21">
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" spans="1:4" ht="21">
       <c r="A296" s="5" t="s">
         <v>283</v>
       </c>
@@ -5303,7 +5333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" spans="1:4" ht="21">
       <c r="A297" s="5" t="s">
         <v>283</v>
       </c>
@@ -5314,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" spans="1:4" ht="21">
       <c r="A298" s="5" t="s">
         <v>283</v>
       </c>
@@ -5325,7 +5355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" spans="1:4" ht="21">
       <c r="A299" s="5" t="s">
         <v>283</v>
       </c>
@@ -5336,7 +5366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" spans="1:4" ht="21">
       <c r="A300" s="5" t="s">
         <v>283</v>
       </c>
@@ -5347,7 +5377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" spans="1:4" ht="21">
       <c r="A301" s="5" t="s">
         <v>283</v>
       </c>
@@ -5358,7 +5388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" spans="1:4" ht="21">
       <c r="A302" s="5" t="s">
         <v>283</v>
       </c>
@@ -5369,7 +5399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" spans="1:4" ht="21">
       <c r="A303" s="5" t="s">
         <v>283</v>
       </c>
@@ -5380,7 +5410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" spans="1:4" ht="21">
       <c r="A304" s="5" t="s">
         <v>283</v>
       </c>
@@ -7095,7 +7125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" spans="1:4" ht="21">
       <c r="A465" s="5" t="s">
         <v>391</v>
       </c>
@@ -7106,7 +7136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" spans="1:4" ht="21">
       <c r="A466" s="5" t="s">
         <v>391</v>
       </c>
@@ -7117,7 +7147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" spans="1:4" ht="21">
       <c r="A467" s="5" t="s">
         <v>391</v>
       </c>
@@ -7128,7 +7158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" spans="1:4" ht="21">
       <c r="A468" s="5" t="s">
         <v>391</v>
       </c>
@@ -7139,7 +7169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" spans="1:4" ht="21">
       <c r="A469" s="5" t="s">
         <v>391</v>
       </c>
@@ -7150,16 +7180,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" spans="1:4" ht="21">
       <c r="B470" s="7"/>
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" spans="1:4" ht="21">
       <c r="A471" s="8"/>
       <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" spans="1:4" ht="21">
       <c r="A472" s="5" t="s">
         <v>451</v>
       </c>
@@ -7170,7 +7200,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" spans="1:4" ht="21">
       <c r="A473" s="5" t="s">
         <v>451</v>
       </c>
@@ -7181,7 +7211,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" spans="1:4" ht="21">
       <c r="A474" s="5" t="s">
         <v>451</v>
       </c>
@@ -7192,7 +7222,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" spans="1:4" ht="21">
       <c r="A475" s="5" t="s">
         <v>451</v>
       </c>
@@ -7200,10 +7230,13 @@
         <v>455</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D475" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="21">
       <c r="A476" s="5" t="s">
         <v>451</v>
       </c>
@@ -7214,7 +7247,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" spans="1:4" ht="21">
       <c r="A477" s="5" t="s">
         <v>451</v>
       </c>
@@ -7225,7 +7258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" spans="1:4" ht="21">
       <c r="A478" s="5" t="s">
         <v>451</v>
       </c>
@@ -7233,10 +7266,10 @@
         <v>458</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="21">
       <c r="A479" s="5" t="s">
         <v>451</v>
       </c>
@@ -7244,10 +7277,13 @@
         <v>459</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D479" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="21">
       <c r="A480" s="5" t="s">
         <v>451</v>
       </c>
@@ -7255,10 +7291,10 @@
         <v>460</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="21">
       <c r="A481" s="5" t="s">
         <v>451</v>
       </c>
@@ -7266,7 +7302,10 @@
         <v>461</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D481" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91982\OneDrive\Desktop\One-Piece\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EDFD58-BBD2-4D5D-9376-86D27BFB9EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C6AF3A-0206-44CA-9198-327FB977FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1941,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C289" sqref="C289"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5330,7 +5330,7 @@
         <v>284</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="21">
@@ -5341,7 +5341,7 @@
         <v>285</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="21">
@@ -5352,7 +5352,7 @@
         <v>286</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="21">
@@ -5363,7 +5363,7 @@
         <v>287</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="21">
@@ -5374,7 +5374,10 @@
         <v>288</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
+      </c>
+      <c r="D300" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="21">
@@ -5385,7 +5388,7 @@
         <v>289</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="21">
@@ -5396,7 +5399,7 @@
         <v>290</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="21">
@@ -5407,7 +5410,7 @@
         <v>291</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>463</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="21">
@@ -5418,10 +5421,10 @@
         <v>292</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="21">
       <c r="A305" s="5" t="s">
         <v>283</v>
       </c>
@@ -5429,10 +5432,13 @@
         <v>293</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D305" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="21">
       <c r="A306" s="5" t="s">
         <v>283</v>
       </c>
@@ -5440,10 +5446,10 @@
         <v>294</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="21">
       <c r="A307" s="5" t="s">
         <v>283</v>
       </c>
@@ -5451,10 +5457,10 @@
         <v>295</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="21">
       <c r="A308" s="5" t="s">
         <v>283</v>
       </c>
@@ -5462,10 +5468,10 @@
         <v>296</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="21">
       <c r="A309" s="5" t="s">
         <v>283</v>
       </c>
@@ -5473,10 +5479,13 @@
         <v>297</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D309" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="21">
       <c r="A310" s="5" t="s">
         <v>283</v>
       </c>
@@ -5484,10 +5493,10 @@
         <v>298</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="21">
       <c r="A311" s="5" t="s">
         <v>283</v>
       </c>
@@ -5495,10 +5504,10 @@
         <v>299</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="21">
       <c r="A312" s="5" t="s">
         <v>283</v>
       </c>
@@ -5506,10 +5515,13 @@
         <v>300</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+      <c r="D312" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="21">
       <c r="A313" s="5" t="s">
         <v>283</v>
       </c>
@@ -5517,10 +5529,10 @@
         <v>301</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="21">
       <c r="A314" s="5" t="s">
         <v>283</v>
       </c>
@@ -5528,10 +5540,10 @@
         <v>302</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="21">
       <c r="A315" s="5" t="s">
         <v>283</v>
       </c>
@@ -5539,10 +5551,10 @@
         <v>303</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="21">
       <c r="A316" s="5" t="s">
         <v>283</v>
       </c>
@@ -5550,10 +5562,10 @@
         <v>304</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="21">
       <c r="A317" s="5" t="s">
         <v>283</v>
       </c>
@@ -5561,10 +5573,10 @@
         <v>305</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="21">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="21">
       <c r="A318" s="5" t="s">
         <v>283</v>
       </c>
@@ -5575,7 +5587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" spans="1:4" ht="21">
       <c r="A319" s="5" t="s">
         <v>283</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" spans="1:4" ht="21">
       <c r="A320" s="5" t="s">
         <v>283</v>
       </c>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="488">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1755,11 +1755,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A330" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D331" activeCellId="0" sqref="D331"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B347" activeCellId="0" sqref="B347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5600,7 +5600,7 @@
         <v>350</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,7 +5611,10 @@
         <v>351</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5622,7 +5625,7 @@
         <v>352</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5633,7 +5636,7 @@
         <v>353</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,7 +5647,7 @@
         <v>354</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5655,7 +5658,7 @@
         <v>355</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5666,7 +5669,7 @@
         <v>356</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5677,7 +5680,10 @@
         <v>357</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5694,10 @@
         <v>358</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,10 +5708,10 @@
         <v>359</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>349</v>
       </c>
@@ -5713,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>349</v>
       </c>
@@ -5721,10 +5730,13 @@
         <v>361</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+      <c r="D347" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>349</v>
       </c>
@@ -5732,10 +5744,13 @@
         <v>362</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="D348" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>349</v>
       </c>
@@ -5743,10 +5758,10 @@
         <v>363</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>349</v>
       </c>
@@ -5754,10 +5769,13 @@
         <v>364</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="D350" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>349</v>
       </c>
@@ -5765,10 +5783,10 @@
         <v>365</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>349</v>
       </c>
@@ -5776,10 +5794,10 @@
         <v>366</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>349</v>
       </c>
@@ -5787,7 +5805,7 @@
         <v>367</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="488">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1755,11 +1755,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B347" activeCellId="0" sqref="B347"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A361" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C370" activeCellId="0" sqref="C370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5824,7 +5824,7 @@
         <v>368</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5835,7 +5835,7 @@
         <v>369</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5846,7 +5846,7 @@
         <v>370</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5857,7 +5857,10 @@
         <v>371</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5868,7 +5871,7 @@
         <v>372</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5879,7 +5882,7 @@
         <v>373</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,7 +5893,7 @@
         <v>374</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,10 +5904,10 @@
         <v>375</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>304</v>
       </c>
@@ -5912,7 +5915,7 @@
         <v>376</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,7 +5926,7 @@
         <v>377</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5934,7 +5937,7 @@
         <v>378</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5945,7 +5948,7 @@
         <v>379</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5956,7 +5959,10 @@
         <v>380</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5967,7 +5973,10 @@
         <v>381</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5978,7 +5987,7 @@
         <v>382</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A361" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C370" activeCellId="0" sqref="C370"/>
+      <selection pane="topLeft" activeCell="B373" activeCellId="0" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="488">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1755,11 +1755,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A361" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B373" activeCellId="0" sqref="B373"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A377" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D385" activeCellId="0" sqref="D385"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5998,7 +5998,7 @@
         <v>383</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6009,7 +6009,10 @@
         <v>384</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,7 +6023,10 @@
         <v>385</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,7 +6037,7 @@
         <v>386</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,7 +6048,7 @@
         <v>387</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6053,7 +6059,7 @@
         <v>388</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,7 +6070,7 @@
         <v>389</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,7 +6081,10 @@
         <v>390</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6086,7 +6095,10 @@
         <v>391</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,7 +6109,10 @@
         <v>392</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6108,7 +6123,10 @@
         <v>393</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,7 +6137,10 @@
         <v>394</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,7 +6162,7 @@
         <v>396</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6173,10 @@
         <v>397</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="489">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1225,16 +1225,19 @@
     <t xml:space="preserve">Oliver and the Game</t>
   </si>
   <si>
+    <t xml:space="preserve">Water Jug problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Water Jug problem using BFS</t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
     <t xml:space="preserve">M-ColouringProblem</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+    <t xml:space="preserve">Minimum edges to reverse to make path from source to destination</t>
   </si>
   <si>
     <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
@@ -1755,11 +1758,11 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A377" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D385" activeCellId="0" sqref="D385"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C430" activeCellId="0" sqref="C430"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -6151,7 +6154,7 @@
         <v>395</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +6190,7 @@
         <v>398</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6198,7 +6201,7 @@
         <v>399</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6209,10 +6212,13 @@
         <v>400</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>304</v>
       </c>
@@ -6220,7 +6226,10 @@
         <v>401</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6228,21 +6237,21 @@
         <v>304</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>402</v>
+        <v>303</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6250,21 +6259,24 @@
         <v>304</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6272,10 +6284,13 @@
         <v>304</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,7 +6298,7 @@
         <v>304</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -6294,7 +6309,7 @@
         <v>304</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -6305,7 +6320,7 @@
         <v>304</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -6316,7 +6331,7 @@
         <v>304</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -6327,7 +6342,7 @@
         <v>304</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -6343,10 +6358,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -6354,10 +6369,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -6365,10 +6380,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -6376,7 +6391,7 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B405" s="7" t="s">
         <v>95</v>
@@ -6387,10 +6402,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -6398,10 +6413,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>5</v>
@@ -6417,241 +6432,244 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B417" s="7" t="s">
         <v>295</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>5</v>
@@ -6659,10 +6677,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>5</v>
@@ -6670,10 +6688,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>5</v>
@@ -6681,10 +6699,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>5</v>
@@ -6692,10 +6710,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>5</v>
@@ -6703,10 +6721,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -6714,10 +6732,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -6725,10 +6743,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -6736,10 +6754,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -6747,10 +6765,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>5</v>
@@ -6758,10 +6776,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -6769,10 +6787,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -6780,10 +6798,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>5</v>
@@ -6791,10 +6809,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -6802,10 +6820,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>5</v>
@@ -6813,10 +6831,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>5</v>
@@ -6824,10 +6842,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -6835,10 +6853,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>5</v>
@@ -6846,10 +6864,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>5</v>
@@ -6857,10 +6875,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>5</v>
@@ -6868,10 +6886,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>5</v>
@@ -6879,10 +6897,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>5</v>
@@ -6890,10 +6908,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>5</v>
@@ -6901,10 +6919,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>5</v>
@@ -6912,10 +6930,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -6923,10 +6941,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -6934,10 +6952,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>5</v>
@@ -6945,10 +6963,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>5</v>
@@ -6956,10 +6974,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>5</v>
@@ -6967,10 +6985,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>5</v>
@@ -6978,10 +6996,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -6989,10 +7007,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7000,10 +7018,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7011,10 +7029,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7022,10 +7040,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>5</v>
@@ -7033,10 +7051,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7044,10 +7062,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7055,10 +7073,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7066,10 +7084,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>5</v>
@@ -7086,10 +7104,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>8</v>
@@ -7097,10 +7115,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>8</v>
@@ -7108,10 +7126,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>8</v>
@@ -7119,10 +7137,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>8</v>
@@ -7133,10 +7151,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>8</v>
@@ -7144,10 +7162,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>8</v>
@@ -7155,10 +7173,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>8</v>
@@ -7166,10 +7184,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>8</v>
@@ -7180,10 +7198,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>8</v>
@@ -7191,10 +7209,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>8</v>
@@ -7599,11 +7617,11 @@
     <hyperlink ref="B386" r:id="rId360" display="Journey to the Moon"/>
     <hyperlink ref="B387" r:id="rId361" display="Cheapest Flights Within K Stops"/>
     <hyperlink ref="B388" r:id="rId362" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId363" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B389" r:id="rId363" display="Water Jug problem"/>
     <hyperlink ref="B390" r:id="rId364" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId365" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B391" r:id="rId365" display="Find if there is a path of more than k length from a source"/>
     <hyperlink ref="B392" r:id="rId366" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId367" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B393" r:id="rId367" display="Minimum edges to reverse to make path from source to destination"/>
     <hyperlink ref="B394" r:id="rId368" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
     <hyperlink ref="B395" r:id="rId369" display="Vertex Cover Problem"/>
     <hyperlink ref="B396" r:id="rId370" display="Chinese Postman or Route Inspection"/>
